--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7733009545801663</v>
+        <v>0.77330095458017</v>
       </c>
       <c r="D2">
-        <v>0.7854679315237669</v>
+        <v>0.7854679315237709</v>
       </c>
       <c r="E2">
-        <v>0.8023925754307716</v>
+        <v>0.802392575430775</v>
       </c>
       <c r="F2">
-        <v>0.7708663030907619</v>
+        <v>0.7708663030907656</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8052885887966696</v>
+        <v>0.8052885887966731</v>
       </c>
       <c r="K2">
-        <v>0.8010267630204925</v>
+        <v>0.801026763020496</v>
       </c>
       <c r="L2">
-        <v>0.8175205116795551</v>
+        <v>0.8175205116795584</v>
       </c>
       <c r="M2">
-        <v>0.7868176409618871</v>
+        <v>0.7868176409618908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8242377566969926</v>
+        <v>0.8242377566969984</v>
       </c>
       <c r="D3">
-        <v>0.8343069038697671</v>
+        <v>0.8343069038697729</v>
       </c>
       <c r="E3">
-        <v>0.8476079783168627</v>
+        <v>0.8476079783168677</v>
       </c>
       <c r="F3">
-        <v>0.8234098432963919</v>
+        <v>0.8234098432963973</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8510158741262293</v>
+        <v>0.8510158741262348</v>
       </c>
       <c r="K3">
-        <v>0.8476145270142758</v>
+        <v>0.8476145270142816</v>
       </c>
       <c r="L3">
-        <v>0.8606502449709293</v>
+        <v>0.8606502449709342</v>
       </c>
       <c r="M3">
-        <v>0.8369433196748353</v>
+        <v>0.8369433196748406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8492665825975713</v>
+        <v>0.8492665825975647</v>
       </c>
       <c r="D4">
-        <v>0.8583650281744789</v>
+        <v>0.8583650281744727</v>
       </c>
       <c r="E4">
-        <v>0.8699095018122979</v>
+        <v>0.8699095018122923</v>
       </c>
       <c r="F4">
-        <v>0.8492479673107258</v>
+        <v>0.8492479673107196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8735081512833073</v>
+        <v>0.8735081512833009</v>
       </c>
       <c r="K4">
-        <v>0.8705382795087945</v>
+        <v>0.8705382795087883</v>
       </c>
       <c r="L4">
-        <v>0.881880963743997</v>
+        <v>0.8818809637439916</v>
       </c>
       <c r="M4">
-        <v>0.8615856264626511</v>
+        <v>0.8615856264626449</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8586804136697188</v>
+        <v>0.8586804136697189</v>
       </c>
       <c r="D5">
-        <v>0.8674226767422252</v>
+        <v>0.8674226767422257</v>
       </c>
       <c r="E5">
         <v>0.8783087632834735</v>
       </c>
       <c r="F5">
-        <v>0.8589707926317132</v>
+        <v>0.8589707926317133</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8819690446067668</v>
+        <v>0.8819690446067669</v>
       </c>
       <c r="K5">
-        <v>0.8791633031824206</v>
+        <v>0.879163303182421</v>
       </c>
       <c r="L5">
-        <v>0.8898688316163448</v>
+        <v>0.8898688316163451</v>
       </c>
       <c r="M5">
-        <v>0.8708556854693472</v>
+        <v>0.8708556854693473</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8602081479185423</v>
+        <v>0.8602081479185403</v>
       </c>
       <c r="D6">
-        <v>0.8688930409476682</v>
+        <v>0.868893040947666</v>
       </c>
       <c r="E6">
-        <v>0.8796723593306978</v>
+        <v>0.8796723593306959</v>
       </c>
       <c r="F6">
-        <v>0.860548937789342</v>
+        <v>0.8605489377893403</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.883342122839081</v>
+        <v>0.883342122839079</v>
       </c>
       <c r="K6">
-        <v>0.8805631218141841</v>
+        <v>0.8805631218141818</v>
       </c>
       <c r="L6">
-        <v>0.8911651962925423</v>
+        <v>0.8911651962925404</v>
       </c>
       <c r="M6">
-        <v>0.8723601600571625</v>
+        <v>0.8723601600571608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8493961366900119</v>
+        <v>0.8493961366900111</v>
       </c>
       <c r="D7">
-        <v>0.8584896487042426</v>
+        <v>0.8584896487042419</v>
       </c>
       <c r="E7">
-        <v>0.8700250549965504</v>
+        <v>0.8700250549965499</v>
       </c>
       <c r="F7">
-        <v>0.8493817553387809</v>
+        <v>0.8493817553387802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8736245900655391</v>
+        <v>0.8736245900655382</v>
       </c>
       <c r="K7">
-        <v>0.8706569697724375</v>
+        <v>0.8706569697724369</v>
       </c>
       <c r="L7">
-        <v>0.8819908884394334</v>
+        <v>0.8819908884394329</v>
       </c>
       <c r="M7">
-        <v>0.8617131965043474</v>
+        <v>0.861713196504347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,16 +610,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D8">
         <v>0.8042927907113537</v>
       </c>
       <c r="E8">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F8">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L8">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M8">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,16 +642,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D9">
         <v>0.8042927907113537</v>
       </c>
       <c r="E9">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F9">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -663,10 +663,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L9">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M9">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,16 +674,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D10">
         <v>0.8042927907113537</v>
       </c>
       <c r="E10">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F10">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L10">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M10">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,16 +706,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D11">
         <v>0.8042927907113537</v>
       </c>
       <c r="E11">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F11">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -727,10 +727,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L11">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M11">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D12">
         <v>0.8042927907113537</v>
       </c>
       <c r="E12">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F12">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -759,10 +759,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L12">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M12">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D13">
         <v>0.8042927907113537</v>
       </c>
       <c r="E13">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F13">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -791,10 +791,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L13">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M13">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,16 +802,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D14">
         <v>0.8042927907113537</v>
       </c>
       <c r="E14">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F14">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -823,10 +823,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L14">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M14">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,16 +834,16 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D15">
         <v>0.8042927907113537</v>
       </c>
       <c r="E15">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F15">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L15">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M15">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,16 +866,16 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D16">
         <v>0.8042927907113537</v>
       </c>
       <c r="E16">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F16">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -887,10 +887,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L16">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M16">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D17">
         <v>0.8042927907113537</v>
       </c>
       <c r="E17">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F17">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -919,10 +919,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L17">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M17">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,16 +930,16 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D18">
         <v>0.8042927907113537</v>
       </c>
       <c r="E18">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F18">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L18">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M18">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,16 +962,16 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D19">
         <v>0.8042927907113537</v>
       </c>
       <c r="E19">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F19">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -983,10 +983,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L19">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M19">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,16 +994,16 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D20">
         <v>0.8042927907113537</v>
       </c>
       <c r="E20">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F20">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L20">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M20">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D21">
         <v>0.8042927907113537</v>
       </c>
       <c r="E21">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F21">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1047,10 +1047,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L21">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M21">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,16 +1058,16 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D22">
         <v>0.8042927907113537</v>
       </c>
       <c r="E22">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F22">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1079,10 +1079,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L22">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M22">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,16 +1090,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D23">
         <v>0.8042927907113537</v>
       </c>
       <c r="E23">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F23">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L23">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M23">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,16 +1122,16 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D24">
         <v>0.8042927907113537</v>
       </c>
       <c r="E24">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F24">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L24">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M24">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,16 +1154,16 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7929565662082471</v>
+        <v>0.7929565662082473</v>
       </c>
       <c r="D25">
         <v>0.8042927907113537</v>
       </c>
       <c r="E25">
-        <v>0.8198092476178561</v>
+        <v>0.8198092476178565</v>
       </c>
       <c r="F25">
-        <v>0.7911370176653022</v>
+        <v>0.7911370176653025</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L25">
-        <v>0.8341464122660809</v>
+        <v>0.8341464122660811</v>
       </c>
       <c r="M25">
-        <v>0.8061558164572264</v>
+        <v>0.8061558164572267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.77330095458017</v>
+        <v>0.7733009545801663</v>
       </c>
       <c r="D2">
-        <v>0.7854679315237709</v>
+        <v>0.7854679315237669</v>
       </c>
       <c r="E2">
-        <v>0.802392575430775</v>
+        <v>0.8023925754307716</v>
       </c>
       <c r="F2">
-        <v>0.7708663030907656</v>
+        <v>0.7708663030907619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8052885887966731</v>
+        <v>0.8052885887966696</v>
       </c>
       <c r="K2">
-        <v>0.801026763020496</v>
+        <v>0.8010267630204925</v>
       </c>
       <c r="L2">
-        <v>0.8175205116795584</v>
+        <v>0.8175205116795551</v>
       </c>
       <c r="M2">
-        <v>0.7868176409618908</v>
+        <v>0.7868176409618871</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8242377566969984</v>
+        <v>0.8242377566969926</v>
       </c>
       <c r="D3">
-        <v>0.8343069038697729</v>
+        <v>0.8343069038697671</v>
       </c>
       <c r="E3">
-        <v>0.8476079783168677</v>
+        <v>0.8476079783168627</v>
       </c>
       <c r="F3">
-        <v>0.8234098432963973</v>
+        <v>0.8234098432963919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8510158741262348</v>
+        <v>0.8510158741262293</v>
       </c>
       <c r="K3">
-        <v>0.8476145270142816</v>
+        <v>0.8476145270142758</v>
       </c>
       <c r="L3">
-        <v>0.8606502449709342</v>
+        <v>0.8606502449709293</v>
       </c>
       <c r="M3">
-        <v>0.8369433196748406</v>
+        <v>0.8369433196748353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8492665825975647</v>
+        <v>0.8492665825975713</v>
       </c>
       <c r="D4">
-        <v>0.8583650281744727</v>
+        <v>0.8583650281744789</v>
       </c>
       <c r="E4">
-        <v>0.8699095018122923</v>
+        <v>0.8699095018122979</v>
       </c>
       <c r="F4">
-        <v>0.8492479673107196</v>
+        <v>0.8492479673107258</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8735081512833009</v>
+        <v>0.8735081512833073</v>
       </c>
       <c r="K4">
-        <v>0.8705382795087883</v>
+        <v>0.8705382795087945</v>
       </c>
       <c r="L4">
-        <v>0.8818809637439916</v>
+        <v>0.881880963743997</v>
       </c>
       <c r="M4">
-        <v>0.8615856264626449</v>
+        <v>0.8615856264626511</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8586804136697189</v>
+        <v>0.8586804136697188</v>
       </c>
       <c r="D5">
-        <v>0.8674226767422257</v>
+        <v>0.8674226767422252</v>
       </c>
       <c r="E5">
         <v>0.8783087632834735</v>
       </c>
       <c r="F5">
-        <v>0.8589707926317133</v>
+        <v>0.8589707926317132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8819690446067669</v>
+        <v>0.8819690446067668</v>
       </c>
       <c r="K5">
-        <v>0.879163303182421</v>
+        <v>0.8791633031824206</v>
       </c>
       <c r="L5">
-        <v>0.8898688316163451</v>
+        <v>0.8898688316163448</v>
       </c>
       <c r="M5">
-        <v>0.8708556854693473</v>
+        <v>0.8708556854693472</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8602081479185403</v>
+        <v>0.8602081479185423</v>
       </c>
       <c r="D6">
-        <v>0.868893040947666</v>
+        <v>0.8688930409476682</v>
       </c>
       <c r="E6">
-        <v>0.8796723593306959</v>
+        <v>0.8796723593306978</v>
       </c>
       <c r="F6">
-        <v>0.8605489377893403</v>
+        <v>0.860548937789342</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.883342122839079</v>
+        <v>0.883342122839081</v>
       </c>
       <c r="K6">
-        <v>0.8805631218141818</v>
+        <v>0.8805631218141841</v>
       </c>
       <c r="L6">
-        <v>0.8911651962925404</v>
+        <v>0.8911651962925423</v>
       </c>
       <c r="M6">
-        <v>0.8723601600571608</v>
+        <v>0.8723601600571625</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8493961366900111</v>
+        <v>0.8493961366900119</v>
       </c>
       <c r="D7">
-        <v>0.8584896487042419</v>
+        <v>0.8584896487042426</v>
       </c>
       <c r="E7">
-        <v>0.8700250549965499</v>
+        <v>0.8700250549965504</v>
       </c>
       <c r="F7">
-        <v>0.8493817553387802</v>
+        <v>0.8493817553387809</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8736245900655382</v>
+        <v>0.8736245900655391</v>
       </c>
       <c r="K7">
-        <v>0.8706569697724369</v>
+        <v>0.8706569697724375</v>
       </c>
       <c r="L7">
-        <v>0.8819908884394329</v>
+        <v>0.8819908884394334</v>
       </c>
       <c r="M7">
-        <v>0.861713196504347</v>
+        <v>0.8617131965043474</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,16 +610,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D8">
         <v>0.8042927907113537</v>
       </c>
       <c r="E8">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F8">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L8">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M8">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,16 +642,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D9">
         <v>0.8042927907113537</v>
       </c>
       <c r="E9">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F9">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -663,10 +663,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L9">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M9">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,16 +674,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D10">
         <v>0.8042927907113537</v>
       </c>
       <c r="E10">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F10">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L10">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M10">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,16 +706,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D11">
         <v>0.8042927907113537</v>
       </c>
       <c r="E11">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F11">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -727,10 +727,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L11">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M11">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D12">
         <v>0.8042927907113537</v>
       </c>
       <c r="E12">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F12">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -759,10 +759,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L12">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M12">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D13">
         <v>0.8042927907113537</v>
       </c>
       <c r="E13">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F13">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -791,10 +791,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L13">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M13">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,16 +802,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D14">
         <v>0.8042927907113537</v>
       </c>
       <c r="E14">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F14">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -823,10 +823,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L14">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M14">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,16 +834,16 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D15">
         <v>0.8042927907113537</v>
       </c>
       <c r="E15">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F15">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L15">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M15">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,16 +866,16 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D16">
         <v>0.8042927907113537</v>
       </c>
       <c r="E16">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F16">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -887,10 +887,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L16">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M16">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D17">
         <v>0.8042927907113537</v>
       </c>
       <c r="E17">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F17">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -919,10 +919,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L17">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M17">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,16 +930,16 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D18">
         <v>0.8042927907113537</v>
       </c>
       <c r="E18">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F18">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L18">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M18">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,16 +962,16 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D19">
         <v>0.8042927907113537</v>
       </c>
       <c r="E19">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F19">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -983,10 +983,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L19">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M19">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,16 +994,16 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D20">
         <v>0.8042927907113537</v>
       </c>
       <c r="E20">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F20">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L20">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M20">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D21">
         <v>0.8042927907113537</v>
       </c>
       <c r="E21">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F21">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1047,10 +1047,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L21">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M21">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,16 +1058,16 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D22">
         <v>0.8042927907113537</v>
       </c>
       <c r="E22">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F22">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1079,10 +1079,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L22">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M22">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,16 +1090,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D23">
         <v>0.8042927907113537</v>
       </c>
       <c r="E23">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F23">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L23">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M23">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,16 +1122,16 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D24">
         <v>0.8042927907113537</v>
       </c>
       <c r="E24">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F24">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L24">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M24">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,16 +1154,16 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7929565662082473</v>
+        <v>0.7929565662082471</v>
       </c>
       <c r="D25">
         <v>0.8042927907113537</v>
       </c>
       <c r="E25">
-        <v>0.8198092476178565</v>
+        <v>0.8198092476178561</v>
       </c>
       <c r="F25">
-        <v>0.7911370176653025</v>
+        <v>0.7911370176653022</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>0.8189907368415323</v>
       </c>
       <c r="L25">
-        <v>0.8341464122660811</v>
+        <v>0.8341464122660809</v>
       </c>
       <c r="M25">
-        <v>0.8061558164572267</v>
+        <v>0.8061558164572264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7733009545801663</v>
+        <v>0.7742302811784514</v>
       </c>
       <c r="D2">
-        <v>0.7854679315237669</v>
+        <v>0.7863728322689811</v>
       </c>
       <c r="E2">
-        <v>0.8023925754307716</v>
+        <v>0.803223597040975</v>
       </c>
       <c r="F2">
-        <v>0.7708663030907619</v>
+        <v>0.7718013068996435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8052885887966696</v>
+        <v>0.8061601587699666</v>
       </c>
       <c r="K2">
-        <v>0.8010267630204925</v>
+        <v>0.8019079889776052</v>
       </c>
       <c r="L2">
-        <v>0.8175205116795551</v>
+        <v>0.818331005444742</v>
       </c>
       <c r="M2">
-        <v>0.7868176409618871</v>
+        <v>0.7877269041359682</v>
+      </c>
+      <c r="N2">
+        <v>0.859353485320581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8242377566969926</v>
+        <v>0.8248010095534026</v>
       </c>
       <c r="D3">
-        <v>0.8343069038697671</v>
+        <v>0.8348598022709387</v>
       </c>
       <c r="E3">
-        <v>0.8476079783168627</v>
+        <v>0.8481156254833685</v>
       </c>
       <c r="F3">
-        <v>0.8234098432963919</v>
+        <v>0.8239722946445689</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8510158741262293</v>
+        <v>0.8515527669216395</v>
       </c>
       <c r="K3">
-        <v>0.8476145270142758</v>
+        <v>0.8481561731045588</v>
       </c>
       <c r="L3">
-        <v>0.8606502449709293</v>
+        <v>0.8611479808393937</v>
       </c>
       <c r="M3">
-        <v>0.8369433196748353</v>
+        <v>0.8374939201542527</v>
+      </c>
+      <c r="N3">
+        <v>0.8924134104074105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8492665825975713</v>
+        <v>0.8497122580919214</v>
       </c>
       <c r="D4">
-        <v>0.8583650281744789</v>
+        <v>0.8588039609303485</v>
       </c>
       <c r="E4">
-        <v>0.8699095018122979</v>
+        <v>0.870312381897752</v>
       </c>
       <c r="F4">
-        <v>0.8492479673107258</v>
+        <v>0.8496915482790831</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8735081512833073</v>
+        <v>0.8739359136617173</v>
       </c>
       <c r="K4">
-        <v>0.8705382795087945</v>
+        <v>0.8709694112836915</v>
       </c>
       <c r="L4">
-        <v>0.881880963743997</v>
+        <v>0.8822769267138536</v>
       </c>
       <c r="M4">
-        <v>0.8615856264626511</v>
+        <v>0.8620211020488338</v>
+      </c>
+      <c r="N4">
+        <v>0.908754843936303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8586804136697188</v>
+        <v>0.8590881575283779</v>
       </c>
       <c r="D5">
-        <v>0.8674226767422252</v>
+        <v>0.867824712849435</v>
       </c>
       <c r="E5">
-        <v>0.8783087632834735</v>
+        <v>0.8786777251157745</v>
       </c>
       <c r="F5">
-        <v>0.8589707926317132</v>
+        <v>0.859376143899011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8819690446067668</v>
+        <v>0.8823613556093441</v>
       </c>
       <c r="K5">
-        <v>0.8791633031824206</v>
+        <v>0.8795585671745665</v>
       </c>
       <c r="L5">
-        <v>0.8898688316163448</v>
+        <v>0.8902317745240922</v>
       </c>
       <c r="M5">
-        <v>0.8708556854693472</v>
+        <v>0.871254033947098</v>
+      </c>
+      <c r="N5">
+        <v>0.9149090522699679</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8602081479185423</v>
+        <v>0.8606100047113641</v>
       </c>
       <c r="D6">
-        <v>0.8688930409476682</v>
+        <v>0.8692893443276543</v>
       </c>
       <c r="E6">
-        <v>0.8796723593306978</v>
+        <v>0.8800360514692755</v>
       </c>
       <c r="F6">
-        <v>0.860548937789342</v>
+        <v>0.8609483616471675</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.883342122839081</v>
+        <v>0.8837289196730433</v>
       </c>
       <c r="K6">
-        <v>0.8805631218141841</v>
+        <v>0.8809528085192962</v>
       </c>
       <c r="L6">
-        <v>0.8911651962925423</v>
+        <v>0.8915230054620841</v>
       </c>
       <c r="M6">
-        <v>0.8723601600571625</v>
+        <v>0.872752747065084</v>
+      </c>
+      <c r="N6">
+        <v>0.9159080284793151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8493961366900119</v>
+        <v>0.8498412697762054</v>
       </c>
       <c r="D7">
-        <v>0.8584896487042426</v>
+        <v>0.8589280543335648</v>
       </c>
       <c r="E7">
-        <v>0.8700250549965504</v>
+        <v>0.870427450491806</v>
       </c>
       <c r="F7">
-        <v>0.8493817553387809</v>
+        <v>0.849824789187812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8736245900655391</v>
+        <v>0.8740518464195948</v>
       </c>
       <c r="K7">
-        <v>0.8706569697724375</v>
+        <v>0.8710875894543199</v>
       </c>
       <c r="L7">
-        <v>0.8819908884394334</v>
+        <v>0.8823863799227165</v>
       </c>
       <c r="M7">
-        <v>0.8617131965043474</v>
+        <v>0.8621481411329674</v>
+      </c>
+      <c r="N7">
+        <v>0.9088395182568403</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D8">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E8">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F8">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K8">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L8">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M8">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N8">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D9">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E9">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F9">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K9">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L9">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M9">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N9">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D10">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E10">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F10">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K10">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L10">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M10">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N10">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D11">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E11">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F11">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K11">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L11">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M11">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N11">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D12">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E12">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F12">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K12">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L12">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M12">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N12">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D13">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E13">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F13">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K13">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L13">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M13">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N13">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D14">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E14">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F14">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K14">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L14">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M14">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N14">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D15">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E15">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F15">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K15">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L15">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M15">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N15">
+        <v>0.8720674168696007</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D16">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E16">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F16">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K16">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L16">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M16">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N16">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D17">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E17">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F17">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K17">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L17">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M17">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N17">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D18">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E18">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F18">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K18">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L18">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M18">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N18">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D19">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E19">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F19">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K19">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L19">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M19">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N19">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D20">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E20">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F20">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K20">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L20">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M20">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N20">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D21">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E21">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F21">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K21">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L21">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M21">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N21">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D22">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E22">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F22">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K22">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L22">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M22">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N22">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D23">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E23">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F23">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K23">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L23">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M23">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N23">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D24">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E24">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F24">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K24">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L24">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M24">
-        <v>0.8061558164572264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N24">
+        <v>0.8720674168696007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7929565662082471</v>
+        <v>0.7937166168552174</v>
       </c>
       <c r="D25">
-        <v>0.8042927907113537</v>
+        <v>0.8050353507618265</v>
       </c>
       <c r="E25">
-        <v>0.8198092476178561</v>
+        <v>0.8204911823805536</v>
       </c>
       <c r="F25">
-        <v>0.7911370176653022</v>
+        <v>0.7918993876392741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8229229099821744</v>
+        <v>0.8236404749788334</v>
       </c>
       <c r="K25">
-        <v>0.8189907368415323</v>
+        <v>0.8197156060889659</v>
       </c>
       <c r="L25">
-        <v>0.8341464122660809</v>
+        <v>0.8348129084208021</v>
       </c>
       <c r="M25">
-        <v>0.8061558164572264</v>
+        <v>0.8068992008331182</v>
+      </c>
+      <c r="N25">
+        <v>0.8720674168696007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9692411534408341</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9779523743612049</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9788851530968726</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9443863742004218</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.032283861542903</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9923824594521811</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9897276599713887</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9906467055738079</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9566790030446438</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9937917563724623</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.980109607584316</v>
+      </c>
+      <c r="D3">
+        <v>0.988072825152424</v>
+      </c>
+      <c r="E3">
+        <v>0.9880747122174039</v>
+      </c>
+      <c r="F3">
+        <v>0.9584356011599393</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.03520069488138</v>
+      </c>
+      <c r="J3">
+        <v>1.001157593186798</v>
+      </c>
+      <c r="K3">
+        <v>0.9988606259615382</v>
+      </c>
+      <c r="L3">
+        <v>0.9988624881448377</v>
+      </c>
+      <c r="M3">
+        <v>0.969629459670499</v>
+      </c>
+      <c r="N3">
+        <v>1.002579351803504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9868168442513453</v>
+      </c>
+      <c r="D4">
+        <v>0.9943238409038878</v>
+      </c>
+      <c r="E4">
+        <v>0.9937529866630699</v>
+      </c>
+      <c r="F4">
+        <v>0.9670888130048426</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.036982931724107</v>
+      </c>
+      <c r="J4">
+        <v>1.006563895827264</v>
+      </c>
+      <c r="K4">
+        <v>1.004491258387036</v>
+      </c>
+      <c r="L4">
+        <v>1.003927396996229</v>
+      </c>
+      <c r="M4">
+        <v>0.9776013755254557</v>
+      </c>
+      <c r="N4">
+        <v>1.007993332013832</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9895655096686365</v>
+      </c>
+      <c r="D5">
+        <v>0.9968867217141244</v>
+      </c>
+      <c r="E5">
+        <v>0.9960815014868976</v>
+      </c>
+      <c r="F5">
+        <v>0.9706318295990141</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.037708932563104</v>
+      </c>
+      <c r="J5">
+        <v>1.008777202901699</v>
+      </c>
+      <c r="K5">
+        <v>1.006797319486063</v>
+      </c>
+      <c r="L5">
+        <v>1.006001656603577</v>
+      </c>
+      <c r="M5">
+        <v>0.9808642461304194</v>
+      </c>
+      <c r="N5">
+        <v>1.010209782238182</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9900230364484814</v>
+      </c>
+      <c r="D6">
+        <v>0.9973133900290695</v>
+      </c>
+      <c r="E6">
+        <v>0.9964691771443573</v>
+      </c>
+      <c r="F6">
+        <v>0.9712214205749554</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.037829518585061</v>
+      </c>
+      <c r="J6">
+        <v>1.009145484583874</v>
+      </c>
+      <c r="K6">
+        <v>1.007181088400196</v>
+      </c>
+      <c r="L6">
+        <v>1.006346842328166</v>
+      </c>
+      <c r="M6">
+        <v>0.9814071453263191</v>
+      </c>
+      <c r="N6">
+        <v>1.010578586922587</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9868538429541174</v>
+      </c>
+      <c r="D7">
+        <v>0.9943583343023001</v>
+      </c>
+      <c r="E7">
+        <v>0.9937843240626049</v>
+      </c>
+      <c r="F7">
+        <v>0.9671365154008987</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.036992721610471</v>
+      </c>
+      <c r="J7">
+        <v>1.006593697191219</v>
+      </c>
+      <c r="K7">
+        <v>1.004522305032092</v>
+      </c>
+      <c r="L7">
+        <v>1.003955323356046</v>
+      </c>
+      <c r="M7">
+        <v>0.9776453109590489</v>
+      </c>
+      <c r="N7">
+        <v>1.008023175699142</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9729860238997727</v>
+      </c>
+      <c r="D8">
+        <v>0.9814382811227379</v>
+      </c>
+      <c r="E8">
+        <v>0.9820498902819578</v>
+      </c>
+      <c r="F8">
+        <v>0.949231494025943</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.033292641157107</v>
+      </c>
+      <c r="J8">
+        <v>0.9954079580292957</v>
+      </c>
+      <c r="K8">
+        <v>0.9928756947108544</v>
+      </c>
+      <c r="L8">
+        <v>0.9934786251106601</v>
+      </c>
+      <c r="M8">
+        <v>0.9611460931203761</v>
+      </c>
+      <c r="N8">
+        <v>0.9968215515045858</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9456825769145092</v>
+      </c>
+      <c r="D9">
+        <v>0.95605312154916</v>
+      </c>
+      <c r="E9">
+        <v>0.9590178749804401</v>
+      </c>
+      <c r="F9">
+        <v>0.9137772136820435</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.02586228019135</v>
+      </c>
+      <c r="J9">
+        <v>0.9733108347334118</v>
+      </c>
+      <c r="K9">
+        <v>0.9699018581475416</v>
+      </c>
+      <c r="L9">
+        <v>0.9728128005883084</v>
+      </c>
+      <c r="M9">
+        <v>0.9284434040631568</v>
+      </c>
+      <c r="N9">
+        <v>0.9746930477590465</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.92488055295696</v>
+      </c>
+      <c r="D10">
+        <v>0.9367608539815458</v>
+      </c>
+      <c r="E10">
+        <v>0.9415391794929121</v>
+      </c>
+      <c r="F10">
+        <v>0.8865100460307545</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.020108554429181</v>
+      </c>
+      <c r="J10">
+        <v>0.9564277294678194</v>
+      </c>
+      <c r="K10">
+        <v>0.9523741756982931</v>
+      </c>
+      <c r="L10">
+        <v>0.9570507713291018</v>
+      </c>
+      <c r="M10">
+        <v>0.9032828479135305</v>
+      </c>
+      <c r="N10">
+        <v>0.9577859665474578</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9150420435635974</v>
+      </c>
+      <c r="D11">
+        <v>0.9276514419492691</v>
+      </c>
+      <c r="E11">
+        <v>0.9332948674703632</v>
+      </c>
+      <c r="F11">
+        <v>0.8735139205115365</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.017367563948274</v>
+      </c>
+      <c r="J11">
+        <v>0.9484322983111472</v>
+      </c>
+      <c r="K11">
+        <v>0.9440801275842082</v>
+      </c>
+      <c r="L11">
+        <v>0.9495948085596677</v>
+      </c>
+      <c r="M11">
+        <v>0.8912929141594296</v>
+      </c>
+      <c r="N11">
+        <v>0.949779180961454</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9112371980578398</v>
+      </c>
+      <c r="D12">
+        <v>0.9241312032564655</v>
+      </c>
+      <c r="E12">
+        <v>0.9301105700007254</v>
+      </c>
+      <c r="F12">
+        <v>0.8684681164303941</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.016304840907194</v>
+      </c>
+      <c r="J12">
+        <v>0.9453387511718214</v>
+      </c>
+      <c r="K12">
+        <v>0.9408721105705307</v>
+      </c>
+      <c r="L12">
+        <v>0.9467115059951381</v>
+      </c>
+      <c r="M12">
+        <v>0.8866386424309238</v>
+      </c>
+      <c r="N12">
+        <v>0.9466812406303556</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9120606564455011</v>
+      </c>
+      <c r="D13">
+        <v>0.9248929401059551</v>
+      </c>
+      <c r="E13">
+        <v>0.930799533856192</v>
+      </c>
+      <c r="F13">
+        <v>0.8695611340616679</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.016534955865696</v>
+      </c>
+      <c r="J13">
+        <v>0.9460083327057499</v>
+      </c>
+      <c r="K13">
+        <v>0.9415664190131329</v>
+      </c>
+      <c r="L13">
+        <v>0.9473355085937571</v>
+      </c>
+      <c r="M13">
+        <v>0.8876467963843919</v>
+      </c>
+      <c r="N13">
+        <v>0.9473517730468645</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.914730778846176</v>
+      </c>
+      <c r="D14">
+        <v>0.9273634045047909</v>
+      </c>
+      <c r="E14">
+        <v>0.933034282866778</v>
+      </c>
+      <c r="F14">
+        <v>0.8731015684283162</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.017280677927159</v>
+      </c>
+      <c r="J14">
+        <v>0.948179252277774</v>
+      </c>
+      <c r="K14">
+        <v>0.9438176961334142</v>
+      </c>
+      <c r="L14">
+        <v>0.9493589280353443</v>
+      </c>
+      <c r="M14">
+        <v>0.8909125373718353</v>
+      </c>
+      <c r="N14">
+        <v>0.9495257755736889</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9163550994062456</v>
+      </c>
+      <c r="D15">
+        <v>0.9288666235195151</v>
+      </c>
+      <c r="E15">
+        <v>0.9343942979440556</v>
+      </c>
+      <c r="F15">
+        <v>0.8752525782326646</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.017733981581128</v>
+      </c>
+      <c r="J15">
+        <v>0.9494997024551237</v>
+      </c>
+      <c r="K15">
+        <v>0.9451871650259313</v>
+      </c>
+      <c r="L15">
+        <v>0.9505898673811921</v>
+      </c>
+      <c r="M15">
+        <v>0.8928967888601246</v>
+      </c>
+      <c r="N15">
+        <v>0.9508481009417481</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9255139894437255</v>
+      </c>
+      <c r="D16">
+        <v>0.9373476837016851</v>
+      </c>
+      <c r="E16">
+        <v>0.942070481500947</v>
+      </c>
+      <c r="F16">
+        <v>0.8873443929384033</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.020284648974578</v>
+      </c>
+      <c r="J16">
+        <v>0.9569422983939778</v>
+      </c>
+      <c r="K16">
+        <v>0.9529081030791561</v>
+      </c>
+      <c r="L16">
+        <v>0.9575308123331826</v>
+      </c>
+      <c r="M16">
+        <v>0.9040526821237033</v>
+      </c>
+      <c r="N16">
+        <v>0.958301266220513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9310209132352326</v>
+      </c>
+      <c r="D17">
+        <v>0.9424511127305799</v>
+      </c>
+      <c r="E17">
+        <v>0.9466920015184943</v>
+      </c>
+      <c r="F17">
+        <v>0.8945865952242916</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.021813422298564</v>
+      </c>
+      <c r="J17">
+        <v>0.9614146847482475</v>
+      </c>
+      <c r="K17">
+        <v>0.9575494801398204</v>
+      </c>
+      <c r="L17">
+        <v>0.9617040594516536</v>
+      </c>
+      <c r="M17">
+        <v>0.9107351870643934</v>
+      </c>
+      <c r="N17">
+        <v>0.9627800038763956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9341548833520542</v>
+      </c>
+      <c r="D18">
+        <v>0.9453568028386907</v>
+      </c>
+      <c r="E18">
+        <v>0.9493240907313195</v>
+      </c>
+      <c r="F18">
+        <v>0.898699343935518</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.022681621501226</v>
+      </c>
+      <c r="J18">
+        <v>0.9639589462771977</v>
+      </c>
+      <c r="K18">
+        <v>0.9601904784165234</v>
+      </c>
+      <c r="L18">
+        <v>0.964078909980462</v>
+      </c>
+      <c r="M18">
+        <v>0.914530243604893</v>
+      </c>
+      <c r="N18">
+        <v>0.965327878548548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9352108883148436</v>
+      </c>
+      <c r="D19">
+        <v>0.9463361067266737</v>
+      </c>
+      <c r="E19">
+        <v>0.9502113073738526</v>
+      </c>
+      <c r="F19">
+        <v>0.9000837801797602</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.022973849575631</v>
+      </c>
+      <c r="J19">
+        <v>0.9648160814496954</v>
+      </c>
+      <c r="K19">
+        <v>0.9610803034037018</v>
+      </c>
+      <c r="L19">
+        <v>0.9648790963210335</v>
+      </c>
+      <c r="M19">
+        <v>0.915807750950317</v>
+      </c>
+      <c r="N19">
+        <v>0.9661862309513053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9304383130668522</v>
+      </c>
+      <c r="D20">
+        <v>0.9419110568774445</v>
+      </c>
+      <c r="E20">
+        <v>0.9462028590829726</v>
+      </c>
+      <c r="F20">
+        <v>0.8938213558806152</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.021651875460718</v>
+      </c>
+      <c r="J20">
+        <v>0.9609416318818419</v>
+      </c>
+      <c r="K20">
+        <v>0.957058489624395</v>
+      </c>
+      <c r="L20">
+        <v>0.9612625659391595</v>
+      </c>
+      <c r="M20">
+        <v>0.9100290683752676</v>
+      </c>
+      <c r="N20">
+        <v>0.9623062792206599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9139488921008454</v>
+      </c>
+      <c r="D21">
+        <v>0.9266399076088154</v>
+      </c>
+      <c r="E21">
+        <v>0.9323797697612946</v>
+      </c>
+      <c r="F21">
+        <v>0.8720654174668706</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.017062380920121</v>
+      </c>
+      <c r="J21">
+        <v>0.9475435856764425</v>
+      </c>
+      <c r="K21">
+        <v>0.9431584701844488</v>
+      </c>
+      <c r="L21">
+        <v>0.9487664073541433</v>
+      </c>
+      <c r="M21">
+        <v>0.8899567495442048</v>
+      </c>
+      <c r="N21">
+        <v>0.9488892062528714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9026917474459518</v>
+      </c>
+      <c r="D22">
+        <v>0.9162304022729442</v>
+      </c>
+      <c r="E22">
+        <v>0.922967235063901</v>
+      </c>
+      <c r="F22">
+        <v>0.8570915027264798</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.013913345200555</v>
+      </c>
+      <c r="J22">
+        <v>0.9383881812719824</v>
+      </c>
+      <c r="K22">
+        <v>0.9336664473067967</v>
+      </c>
+      <c r="L22">
+        <v>0.940236468171464</v>
+      </c>
+      <c r="M22">
+        <v>0.8761472584755357</v>
+      </c>
+      <c r="N22">
+        <v>0.9397208001240176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9087545964635197</v>
+      </c>
+      <c r="D23">
+        <v>0.921835105074575</v>
+      </c>
+      <c r="E23">
+        <v>0.92803410000238</v>
+      </c>
+      <c r="F23">
+        <v>0.8651694525428307</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.015610706931583</v>
+      </c>
+      <c r="J23">
+        <v>0.943319855277712</v>
+      </c>
+      <c r="K23">
+        <v>0.9387788228567817</v>
+      </c>
+      <c r="L23">
+        <v>0.9448302823933987</v>
+      </c>
+      <c r="M23">
+        <v>0.8835962753281993</v>
+      </c>
+      <c r="N23">
+        <v>0.9446594776725059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9307018046013741</v>
+      </c>
+      <c r="D24">
+        <v>0.9421553027908697</v>
+      </c>
+      <c r="E24">
+        <v>0.9464240764604419</v>
+      </c>
+      <c r="F24">
+        <v>0.8941674763372714</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.021724943660455</v>
+      </c>
+      <c r="J24">
+        <v>0.9611555816491305</v>
+      </c>
+      <c r="K24">
+        <v>0.9572805502621137</v>
+      </c>
+      <c r="L24">
+        <v>0.9614622398443676</v>
+      </c>
+      <c r="M24">
+        <v>0.9103484479122934</v>
+      </c>
+      <c r="N24">
+        <v>0.9625205328211582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9531407414498811</v>
+      </c>
+      <c r="D25">
+        <v>0.9629802734588508</v>
+      </c>
+      <c r="E25">
+        <v>0.9652994401945354</v>
+      </c>
+      <c r="F25">
+        <v>0.9234943764882426</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.027907856384561</v>
+      </c>
+      <c r="J25">
+        <v>0.9793549888182909</v>
+      </c>
+      <c r="K25">
+        <v>0.9761818103709229</v>
+      </c>
+      <c r="L25">
+        <v>0.9784614334949672</v>
+      </c>
+      <c r="M25">
+        <v>0.9374090553448865</v>
+      </c>
+      <c r="N25">
+        <v>0.9807457852360002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9692411534408341</v>
+        <v>1.03803729543516</v>
       </c>
       <c r="D2">
-        <v>0.9779523743612049</v>
+        <v>1.040681661590539</v>
       </c>
       <c r="E2">
-        <v>0.9788851530968726</v>
+        <v>1.036634424138333</v>
       </c>
       <c r="F2">
-        <v>0.9443863742004218</v>
+        <v>1.036750166034662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032283861542903</v>
+        <v>1.033126696701326</v>
       </c>
       <c r="J2">
-        <v>0.9923824594521811</v>
+        <v>1.043136909830661</v>
       </c>
       <c r="K2">
-        <v>0.9897276599713887</v>
+        <v>1.043463319468093</v>
       </c>
       <c r="L2">
-        <v>0.9906467055738079</v>
+        <v>1.039427604399025</v>
       </c>
       <c r="M2">
-        <v>0.9566790030446438</v>
+        <v>1.039543015424148</v>
       </c>
       <c r="N2">
-        <v>0.9937917563724623</v>
+        <v>1.044618283892154</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.980109607584316</v>
+        <v>1.039948823371063</v>
       </c>
       <c r="D3">
-        <v>0.988072825152424</v>
+        <v>1.04250774979497</v>
       </c>
       <c r="E3">
-        <v>0.9880747122174039</v>
+        <v>1.038292428549118</v>
       </c>
       <c r="F3">
-        <v>0.9584356011599393</v>
+        <v>1.039302666831624</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03520069488138</v>
+        <v>1.033520507920174</v>
       </c>
       <c r="J3">
-        <v>1.001157593186798</v>
+        <v>1.04468824180698</v>
       </c>
       <c r="K3">
-        <v>0.9988606259615382</v>
+        <v>1.045097212600779</v>
       </c>
       <c r="L3">
-        <v>0.9988624881448377</v>
+        <v>1.040893002758833</v>
       </c>
       <c r="M3">
-        <v>0.969629459670499</v>
+        <v>1.041900569223949</v>
       </c>
       <c r="N3">
-        <v>1.002579351803504</v>
+        <v>1.046171818937762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9868168442513453</v>
+        <v>1.04118032987849</v>
       </c>
       <c r="D4">
-        <v>0.9943238409038878</v>
+        <v>1.043684353180134</v>
       </c>
       <c r="E4">
-        <v>0.9937529866630699</v>
+        <v>1.039360631061186</v>
       </c>
       <c r="F4">
-        <v>0.9670888130048426</v>
+        <v>1.040948089337549</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036982931724107</v>
+        <v>1.03377193629464</v>
       </c>
       <c r="J4">
-        <v>1.006563895827264</v>
+        <v>1.045686511083079</v>
       </c>
       <c r="K4">
-        <v>1.004491258387036</v>
+        <v>1.046149039009968</v>
       </c>
       <c r="L4">
-        <v>1.003927396996229</v>
+        <v>1.041836126670144</v>
       </c>
       <c r="M4">
-        <v>0.9776013755254557</v>
+        <v>1.043419604892013</v>
       </c>
       <c r="N4">
-        <v>1.007993332013832</v>
+        <v>1.047171505870737</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9895655096686365</v>
+        <v>1.041696794668497</v>
       </c>
       <c r="D5">
-        <v>0.9968867217141244</v>
+        <v>1.044177826151174</v>
       </c>
       <c r="E5">
-        <v>0.9960815014868976</v>
+        <v>1.039808615855635</v>
       </c>
       <c r="F5">
-        <v>0.9706318295990141</v>
+        <v>1.041638378554419</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037708932563104</v>
+        <v>1.033876831327163</v>
       </c>
       <c r="J5">
-        <v>1.008777202901699</v>
+        <v>1.046104878785228</v>
       </c>
       <c r="K5">
-        <v>1.006797319486063</v>
+        <v>1.046589955069662</v>
       </c>
       <c r="L5">
-        <v>1.006001656603577</v>
+        <v>1.042231419455727</v>
       </c>
       <c r="M5">
-        <v>0.9808642461304194</v>
+        <v>1.044056700030551</v>
       </c>
       <c r="N5">
-        <v>1.010209782238182</v>
+        <v>1.04759046770301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9900230364484814</v>
+        <v>1.041783438251973</v>
       </c>
       <c r="D6">
-        <v>0.9973133900290695</v>
+        <v>1.044260614494265</v>
       </c>
       <c r="E6">
-        <v>0.9964691771443573</v>
+        <v>1.039883771353047</v>
       </c>
       <c r="F6">
-        <v>0.9712214205749554</v>
+        <v>1.041754197539442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037829518585061</v>
+        <v>1.033894396635238</v>
       </c>
       <c r="J6">
-        <v>1.009145484583874</v>
+        <v>1.046175048721507</v>
       </c>
       <c r="K6">
-        <v>1.007181088400196</v>
+        <v>1.046663912927014</v>
       </c>
       <c r="L6">
-        <v>1.006346842328166</v>
+        <v>1.042297721304791</v>
       </c>
       <c r="M6">
-        <v>0.9814071453263191</v>
+        <v>1.044163583833217</v>
       </c>
       <c r="N6">
-        <v>1.010578586922587</v>
+        <v>1.047660737288647</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9868538429541174</v>
+        <v>1.041187235822499</v>
       </c>
       <c r="D7">
-        <v>0.9943583343023001</v>
+        <v>1.043690951557537</v>
       </c>
       <c r="E7">
-        <v>0.9937843240626049</v>
+        <v>1.039366621298763</v>
       </c>
       <c r="F7">
-        <v>0.9671365154008987</v>
+        <v>1.040957318643299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036992721610471</v>
+        <v>1.033773341062582</v>
       </c>
       <c r="J7">
-        <v>1.006593697191219</v>
+        <v>1.045692106428305</v>
       </c>
       <c r="K7">
-        <v>1.004522305032092</v>
+        <v>1.046154935517043</v>
       </c>
       <c r="L7">
-        <v>1.003955323356046</v>
+        <v>1.041841413264475</v>
       </c>
       <c r="M7">
-        <v>0.9776453109590489</v>
+        <v>1.043428123659575</v>
       </c>
       <c r="N7">
-        <v>1.008023175699142</v>
+        <v>1.047177109161994</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9729860238997727</v>
+        <v>1.038684435803203</v>
       </c>
       <c r="D8">
-        <v>0.9814382811227379</v>
+        <v>1.041299846861556</v>
       </c>
       <c r="E8">
-        <v>0.9820498902819578</v>
+        <v>1.037195728363425</v>
       </c>
       <c r="F8">
-        <v>0.949231494025943</v>
+        <v>1.037614108045104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033292641157107</v>
+        <v>1.033260494023322</v>
       </c>
       <c r="J8">
-        <v>0.9954079580292957</v>
+        <v>1.04366235211291</v>
       </c>
       <c r="K8">
-        <v>0.9928756947108544</v>
+        <v>1.044016636262473</v>
       </c>
       <c r="L8">
-        <v>0.9934786251106601</v>
+        <v>1.039923908797394</v>
       </c>
       <c r="M8">
-        <v>0.9611460931203761</v>
+        <v>1.04034112278925</v>
       </c>
       <c r="N8">
-        <v>0.9968215515045858</v>
+        <v>1.045144472362655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9456825769145092</v>
+        <v>1.034231736301966</v>
       </c>
       <c r="D9">
-        <v>0.95605312154916</v>
+        <v>1.037046986628221</v>
       </c>
       <c r="E9">
-        <v>0.9590178749804401</v>
+        <v>1.033333796630768</v>
       </c>
       <c r="F9">
-        <v>0.9137772136820435</v>
+        <v>1.031673441845578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02586228019135</v>
+        <v>1.03233047994801</v>
       </c>
       <c r="J9">
-        <v>0.9733108347334118</v>
+        <v>1.040042141170344</v>
       </c>
       <c r="K9">
-        <v>0.9699018581475416</v>
+        <v>1.040206152779362</v>
       </c>
       <c r="L9">
-        <v>0.9728128005883084</v>
+        <v>1.036505096507577</v>
       </c>
       <c r="M9">
-        <v>0.9284434040631568</v>
+        <v>1.034850198310076</v>
       </c>
       <c r="N9">
-        <v>0.9746930477590465</v>
+        <v>1.041519120305307</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.92488055295696</v>
+        <v>1.03123297791111</v>
       </c>
       <c r="D10">
-        <v>0.9367608539815458</v>
+        <v>1.034183612054311</v>
       </c>
       <c r="E10">
-        <v>0.9415391794929121</v>
+        <v>1.030733159331769</v>
       </c>
       <c r="F10">
-        <v>0.8865100460307545</v>
+        <v>1.02767704409496</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020108554429181</v>
+        <v>1.031692327480197</v>
       </c>
       <c r="J10">
-        <v>0.9564277294678194</v>
+        <v>1.03759792537287</v>
       </c>
       <c r="K10">
-        <v>0.9523741756982931</v>
+        <v>1.037635712946422</v>
       </c>
       <c r="L10">
-        <v>0.9570507713291018</v>
+        <v>1.0341976818563</v>
       </c>
       <c r="M10">
-        <v>0.9032828479135305</v>
+        <v>1.031152645573755</v>
       </c>
       <c r="N10">
-        <v>0.9577859665474578</v>
+        <v>1.039071433441046</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9150420435635974</v>
+        <v>1.029926902592536</v>
       </c>
       <c r="D11">
-        <v>0.9276514419492691</v>
+        <v>1.032936700026045</v>
       </c>
       <c r="E11">
-        <v>0.9332948674703632</v>
+        <v>1.029600557674375</v>
       </c>
       <c r="F11">
-        <v>0.8735139205115365</v>
+        <v>1.025937430667396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017367563948274</v>
+        <v>1.031411594804677</v>
       </c>
       <c r="J11">
-        <v>0.9484322983111472</v>
+        <v>1.036531928158311</v>
       </c>
       <c r="K11">
-        <v>0.9440801275842082</v>
+        <v>1.036515197017374</v>
       </c>
       <c r="L11">
-        <v>0.9495948085596677</v>
+        <v>1.033191548289875</v>
       </c>
       <c r="M11">
-        <v>0.8912929141594296</v>
+        <v>1.029542243132827</v>
       </c>
       <c r="N11">
-        <v>0.949779180961454</v>
+        <v>1.03800392238817</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9112371980578398</v>
+        <v>1.029440592951192</v>
       </c>
       <c r="D12">
-        <v>0.9241312032564655</v>
+        <v>1.032472450070467</v>
       </c>
       <c r="E12">
-        <v>0.9301105700007254</v>
+        <v>1.029178852770513</v>
       </c>
       <c r="F12">
-        <v>0.8684681164303941</v>
+        <v>1.025289834366208</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016304840907194</v>
+        <v>1.031306646918339</v>
       </c>
       <c r="J12">
-        <v>0.9453387511718214</v>
+        <v>1.03613479316189</v>
       </c>
       <c r="K12">
-        <v>0.9408721105705307</v>
+        <v>1.036097831046899</v>
       </c>
       <c r="L12">
-        <v>0.9467115059951381</v>
+        <v>1.032816745895571</v>
       </c>
       <c r="M12">
-        <v>0.8866386424309238</v>
+        <v>1.028942616404132</v>
       </c>
       <c r="N12">
-        <v>0.9466812406303556</v>
+        <v>1.037606223414501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9120606564455011</v>
+        <v>1.029544961754052</v>
       </c>
       <c r="D13">
-        <v>0.9248929401059551</v>
+        <v>1.032572083162974</v>
       </c>
       <c r="E13">
-        <v>0.930799533856192</v>
+        <v>1.029269355898446</v>
       </c>
       <c r="F13">
-        <v>0.8695611340616679</v>
+        <v>1.025428811367775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016534955865696</v>
+        <v>1.031329189118125</v>
       </c>
       <c r="J13">
-        <v>0.9460083327057499</v>
+        <v>1.036220033661799</v>
       </c>
       <c r="K13">
-        <v>0.9415664190131329</v>
+        <v>1.036187410282339</v>
       </c>
       <c r="L13">
-        <v>0.9473355085937571</v>
+        <v>1.032897191569604</v>
       </c>
       <c r="M13">
-        <v>0.8876467963843919</v>
+        <v>1.029071304849781</v>
       </c>
       <c r="N13">
-        <v>0.9473517730468645</v>
+        <v>1.037691584965698</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.914730778846176</v>
+        <v>1.029886728258668</v>
       </c>
       <c r="D14">
-        <v>0.9273634045047909</v>
+        <v>1.03289834742849</v>
       </c>
       <c r="E14">
-        <v>0.933034282866778</v>
+        <v>1.029565720108066</v>
       </c>
       <c r="F14">
-        <v>0.8731015684283162</v>
+        <v>1.025883929559118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017280677927159</v>
+        <v>1.031402933525775</v>
       </c>
       <c r="J14">
-        <v>0.948179252277774</v>
+        <v>1.036499125018719</v>
       </c>
       <c r="K14">
-        <v>0.9438176961334142</v>
+        <v>1.036480721182446</v>
       </c>
       <c r="L14">
-        <v>0.9493589280353443</v>
+        <v>1.033160589186813</v>
       </c>
       <c r="M14">
-        <v>0.8909125373718353</v>
+        <v>1.029492707696552</v>
       </c>
       <c r="N14">
-        <v>0.9495257755736889</v>
+        <v>1.037971072664358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9163550994062456</v>
+        <v>1.030097145130206</v>
       </c>
       <c r="D15">
-        <v>0.9288666235195151</v>
+        <v>1.033099224039295</v>
       </c>
       <c r="E15">
-        <v>0.9343942979440556</v>
+        <v>1.02974818568719</v>
       </c>
       <c r="F15">
-        <v>0.8752525782326646</v>
+        <v>1.026164152304924</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017733981581128</v>
+        <v>1.031448280668561</v>
       </c>
       <c r="J15">
-        <v>0.9494997024551237</v>
+        <v>1.036670925684783</v>
       </c>
       <c r="K15">
-        <v>0.9451871650259313</v>
+        <v>1.036661285562233</v>
       </c>
       <c r="L15">
-        <v>0.9505898673811921</v>
+        <v>1.033322733287424</v>
       </c>
       <c r="M15">
-        <v>0.8928967888601246</v>
+        <v>1.029752154081309</v>
       </c>
       <c r="N15">
-        <v>0.9508481009417481</v>
+        <v>1.038143117307072</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9255139894437255</v>
+        <v>1.031319494933161</v>
       </c>
       <c r="D16">
-        <v>0.9373476837016851</v>
+        <v>1.034266214218273</v>
       </c>
       <c r="E16">
-        <v>0.942070481500947</v>
+        <v>1.030808186834825</v>
       </c>
       <c r="F16">
-        <v>0.8873443929384033</v>
+        <v>1.027792299360945</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020284648974578</v>
+        <v>1.031710865142146</v>
       </c>
       <c r="J16">
-        <v>0.9569422983939778</v>
+        <v>1.037668508759645</v>
       </c>
       <c r="K16">
-        <v>0.9529081030791561</v>
+        <v>1.037709917373516</v>
       </c>
       <c r="L16">
-        <v>0.9575308123331826</v>
+        <v>1.034264305709114</v>
       </c>
       <c r="M16">
-        <v>0.9040526821237033</v>
+        <v>1.03125932181087</v>
       </c>
       <c r="N16">
-        <v>0.958301266220513</v>
+        <v>1.039142117064326</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9310209132352326</v>
+        <v>1.032084185723482</v>
       </c>
       <c r="D17">
-        <v>0.9424511127305799</v>
+        <v>1.034996326023772</v>
       </c>
       <c r="E17">
-        <v>0.9466920015184943</v>
+        <v>1.031471335147675</v>
       </c>
       <c r="F17">
-        <v>0.8945865952242916</v>
+        <v>1.028811107568865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021813422298564</v>
+        <v>1.031874390911894</v>
       </c>
       <c r="J17">
-        <v>0.9614146847482475</v>
+        <v>1.038292201679246</v>
       </c>
       <c r="K17">
-        <v>0.9575494801398204</v>
+        <v>1.038365667900064</v>
       </c>
       <c r="L17">
-        <v>0.9617040594516536</v>
+        <v>1.03485303429453</v>
       </c>
       <c r="M17">
-        <v>0.9107351870643934</v>
+        <v>1.032202194256031</v>
       </c>
       <c r="N17">
-        <v>0.9627800038763956</v>
+        <v>1.03976669569941</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9341548833520542</v>
+        <v>1.032529486644412</v>
       </c>
       <c r="D18">
-        <v>0.9453568028386907</v>
+        <v>1.035421509655738</v>
       </c>
       <c r="E18">
-        <v>0.9493240907313195</v>
+        <v>1.0318575123012</v>
       </c>
       <c r="F18">
-        <v>0.898699343935518</v>
+        <v>1.029404482196602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022681621501226</v>
+        <v>1.03196934798895</v>
       </c>
       <c r="J18">
-        <v>0.9639589462771977</v>
+        <v>1.038655256462901</v>
       </c>
       <c r="K18">
-        <v>0.9601904784165234</v>
+        <v>1.038747434635467</v>
       </c>
       <c r="L18">
-        <v>0.964078909980462</v>
+        <v>1.035195755397877</v>
       </c>
       <c r="M18">
-        <v>0.914530243604893</v>
+        <v>1.032751258179271</v>
       </c>
       <c r="N18">
-        <v>0.965327878548548</v>
+        <v>1.040130266062502</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9352108883148436</v>
+        <v>1.032681199912693</v>
       </c>
       <c r="D19">
-        <v>0.9463361067266737</v>
+        <v>1.035566372201628</v>
       </c>
       <c r="E19">
-        <v>0.9502113073738526</v>
+        <v>1.031989083395387</v>
       </c>
       <c r="F19">
-        <v>0.9000837801797602</v>
+        <v>1.029606660089183</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022973849575631</v>
+        <v>1.032001654123741</v>
       </c>
       <c r="J19">
-        <v>0.9648160814496954</v>
+        <v>1.038778925006349</v>
       </c>
       <c r="K19">
-        <v>0.9610803034037018</v>
+        <v>1.038877485752409</v>
       </c>
       <c r="L19">
-        <v>0.9648790963210335</v>
+        <v>1.035312500863317</v>
       </c>
       <c r="M19">
-        <v>0.915807750950317</v>
+        <v>1.03293832399577</v>
       </c>
       <c r="N19">
-        <v>0.9661862309513053</v>
+        <v>1.040254110229466</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9304383130668522</v>
+        <v>1.032002217421621</v>
       </c>
       <c r="D20">
-        <v>0.9419110568774445</v>
+        <v>1.034918062318243</v>
       </c>
       <c r="E20">
-        <v>0.9462028590829726</v>
+        <v>1.031400250567719</v>
       </c>
       <c r="F20">
-        <v>0.8938213558806152</v>
+        <v>1.028701890380341</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021651875460718</v>
+        <v>1.031856890141346</v>
       </c>
       <c r="J20">
-        <v>0.9609416318818419</v>
+        <v>1.038225361537993</v>
       </c>
       <c r="K20">
-        <v>0.957058489624395</v>
+        <v>1.038295386912581</v>
       </c>
       <c r="L20">
-        <v>0.9612625659391595</v>
+        <v>1.034789939229309</v>
       </c>
       <c r="M20">
-        <v>0.9100290683752676</v>
+        <v>1.032101126160789</v>
       </c>
       <c r="N20">
-        <v>0.9623062792206599</v>
+        <v>1.03969976063749</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9139488921008454</v>
+        <v>1.029786119258999</v>
       </c>
       <c r="D21">
-        <v>0.9266399076088154</v>
+        <v>1.032802301118166</v>
       </c>
       <c r="E21">
-        <v>0.9323797697612946</v>
+        <v>1.029478476242039</v>
       </c>
       <c r="F21">
-        <v>0.8720654174668706</v>
+        <v>1.02574994839542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017062380920121</v>
+        <v>1.031381236238843</v>
       </c>
       <c r="J21">
-        <v>0.9475435856764425</v>
+        <v>1.036416972273709</v>
       </c>
       <c r="K21">
-        <v>0.9431584701844488</v>
+        <v>1.036394380599735</v>
       </c>
       <c r="L21">
-        <v>0.9487664073541433</v>
+        <v>1.033083055172692</v>
       </c>
       <c r="M21">
-        <v>0.8899567495442048</v>
+        <v>1.029368655526789</v>
       </c>
       <c r="N21">
-        <v>0.9488892062528714</v>
+        <v>1.037888803253026</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9026917474459518</v>
+        <v>1.028385954085297</v>
       </c>
       <c r="D22">
-        <v>0.9162304022729442</v>
+        <v>1.031465707914179</v>
       </c>
       <c r="E22">
-        <v>0.922967235063901</v>
+        <v>1.028264344345441</v>
       </c>
       <c r="F22">
-        <v>0.8570915027264798</v>
+        <v>1.023885665932058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013913345200555</v>
+        <v>1.031078285427345</v>
       </c>
       <c r="J22">
-        <v>0.9383881812719824</v>
+        <v>1.035273146481948</v>
       </c>
       <c r="K22">
-        <v>0.9336664473067967</v>
+        <v>1.035192436339383</v>
       </c>
       <c r="L22">
-        <v>0.940236468171464</v>
+        <v>1.032003609648211</v>
       </c>
       <c r="M22">
-        <v>0.8761472584755357</v>
+        <v>1.02764221975407</v>
       </c>
       <c r="N22">
-        <v>0.9397208001240176</v>
+        <v>1.036743353097443</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9087545964635197</v>
+        <v>1.029128865863485</v>
       </c>
       <c r="D23">
-        <v>0.921835105074575</v>
+        <v>1.032174872064017</v>
       </c>
       <c r="E23">
-        <v>0.92803410000238</v>
+        <v>1.02890854143985</v>
       </c>
       <c r="F23">
-        <v>0.8651694525428307</v>
+        <v>1.02487475981064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015610706931583</v>
+        <v>1.031239256985507</v>
       </c>
       <c r="J23">
-        <v>0.943319855277712</v>
+        <v>1.035880166421489</v>
       </c>
       <c r="K23">
-        <v>0.9387788228567817</v>
+        <v>1.035830255519411</v>
       </c>
       <c r="L23">
-        <v>0.9448302823933987</v>
+        <v>1.032576446554198</v>
       </c>
       <c r="M23">
-        <v>0.8835962753281993</v>
+        <v>1.02855825091298</v>
       </c>
       <c r="N23">
-        <v>0.9446594776725059</v>
+        <v>1.037351235074923</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9307018046013741</v>
+        <v>1.032039257624187</v>
       </c>
       <c r="D24">
-        <v>0.9421553027908697</v>
+        <v>1.034953428412488</v>
       </c>
       <c r="E24">
-        <v>0.9464240764604419</v>
+        <v>1.031432372563014</v>
       </c>
       <c r="F24">
-        <v>0.8941674763372714</v>
+        <v>1.028751243640343</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021724943660455</v>
+        <v>1.031864799298352</v>
       </c>
       <c r="J24">
-        <v>0.9611555816491305</v>
+        <v>1.038255565989966</v>
       </c>
       <c r="K24">
-        <v>0.9572805502621137</v>
+        <v>1.038327146093757</v>
       </c>
       <c r="L24">
-        <v>0.9614622398443676</v>
+        <v>1.034818451256022</v>
       </c>
       <c r="M24">
-        <v>0.9103484479122934</v>
+        <v>1.032146797254132</v>
       </c>
       <c r="N24">
-        <v>0.9625205328211582</v>
+        <v>1.03973000798325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9531407414498811</v>
+        <v>1.035388074676226</v>
       </c>
       <c r="D25">
-        <v>0.9629802734588508</v>
+        <v>1.038151291011355</v>
       </c>
       <c r="E25">
-        <v>0.9652994401945354</v>
+        <v>1.034336676422887</v>
       </c>
       <c r="F25">
-        <v>0.9234943764882426</v>
+        <v>1.03321538489803</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027907856384561</v>
+        <v>1.032574075052542</v>
       </c>
       <c r="J25">
-        <v>0.9793549888182909</v>
+        <v>1.040983361002991</v>
       </c>
       <c r="K25">
-        <v>0.9761818103709229</v>
+        <v>1.041196449144188</v>
       </c>
       <c r="L25">
-        <v>0.9784614334949672</v>
+        <v>1.037393811629086</v>
       </c>
       <c r="M25">
-        <v>0.9374090553448865</v>
+        <v>1.036276059107942</v>
       </c>
       <c r="N25">
-        <v>0.9807457852360002</v>
+        <v>1.042461676778076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.03803729543516</v>
+        <v>0.9692411534408351</v>
       </c>
       <c r="D2">
-        <v>1.040681661590539</v>
+        <v>0.977952374361206</v>
       </c>
       <c r="E2">
-        <v>1.036634424138333</v>
+        <v>0.9788851530968734</v>
       </c>
       <c r="F2">
-        <v>1.036750166034662</v>
+        <v>0.9443863742004233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033126696701326</v>
+        <v>1.032283861542903</v>
       </c>
       <c r="J2">
-        <v>1.043136909830661</v>
+        <v>0.992382459452182</v>
       </c>
       <c r="K2">
-        <v>1.043463319468093</v>
+        <v>0.9897276599713897</v>
       </c>
       <c r="L2">
-        <v>1.039427604399025</v>
+        <v>0.9906467055738086</v>
       </c>
       <c r="M2">
-        <v>1.039543015424148</v>
+        <v>0.9566790030446455</v>
       </c>
       <c r="N2">
-        <v>1.044618283892154</v>
+        <v>0.9937917563724631</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039948823371063</v>
+        <v>0.9801096075843155</v>
       </c>
       <c r="D3">
-        <v>1.04250774979497</v>
+        <v>0.9880728251524237</v>
       </c>
       <c r="E3">
-        <v>1.038292428549118</v>
+        <v>0.9880747122174034</v>
       </c>
       <c r="F3">
-        <v>1.039302666831624</v>
+        <v>0.958435601159939</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033520507920174</v>
+        <v>1.03520069488138</v>
       </c>
       <c r="J3">
-        <v>1.04468824180698</v>
+        <v>1.001157593186797</v>
       </c>
       <c r="K3">
-        <v>1.045097212600779</v>
+        <v>0.9988606259615378</v>
       </c>
       <c r="L3">
-        <v>1.040893002758833</v>
+        <v>0.9988624881448371</v>
       </c>
       <c r="M3">
-        <v>1.041900569223949</v>
+        <v>0.9696294596704985</v>
       </c>
       <c r="N3">
-        <v>1.046171818937762</v>
+        <v>1.002579351803503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04118032987849</v>
+        <v>0.9868168442513457</v>
       </c>
       <c r="D4">
-        <v>1.043684353180134</v>
+        <v>0.9943238409038883</v>
       </c>
       <c r="E4">
-        <v>1.039360631061186</v>
+        <v>0.9937529866630704</v>
       </c>
       <c r="F4">
-        <v>1.040948089337549</v>
+        <v>0.9670888130048431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03377193629464</v>
+        <v>1.036982931724107</v>
       </c>
       <c r="J4">
-        <v>1.045686511083079</v>
+        <v>1.006563895827265</v>
       </c>
       <c r="K4">
-        <v>1.046149039009968</v>
+        <v>1.004491258387037</v>
       </c>
       <c r="L4">
-        <v>1.041836126670144</v>
+        <v>1.003927396996229</v>
       </c>
       <c r="M4">
-        <v>1.043419604892013</v>
+        <v>0.9776013755254562</v>
       </c>
       <c r="N4">
-        <v>1.047171505870737</v>
+        <v>1.007993332013832</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041696794668497</v>
+        <v>0.9895655096686381</v>
       </c>
       <c r="D5">
-        <v>1.044177826151174</v>
+        <v>0.9968867217141263</v>
       </c>
       <c r="E5">
-        <v>1.039808615855635</v>
+        <v>0.9960815014868988</v>
       </c>
       <c r="F5">
-        <v>1.041638378554419</v>
+        <v>0.9706318295990156</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033876831327163</v>
+        <v>1.037708932563104</v>
       </c>
       <c r="J5">
-        <v>1.046104878785228</v>
+        <v>1.0087772029017</v>
       </c>
       <c r="K5">
-        <v>1.046589955069662</v>
+        <v>1.006797319486065</v>
       </c>
       <c r="L5">
-        <v>1.042231419455727</v>
+        <v>1.006001656603578</v>
       </c>
       <c r="M5">
-        <v>1.044056700030551</v>
+        <v>0.980864246130421</v>
       </c>
       <c r="N5">
-        <v>1.04759046770301</v>
+        <v>1.010209782238183</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041783438251973</v>
+        <v>0.9900230364484808</v>
       </c>
       <c r="D6">
-        <v>1.044260614494265</v>
+        <v>0.9973133900290687</v>
       </c>
       <c r="E6">
-        <v>1.039883771353047</v>
+        <v>0.9964691771443565</v>
       </c>
       <c r="F6">
-        <v>1.041754197539442</v>
+        <v>0.9712214205749546</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033894396635238</v>
+        <v>1.037829518585061</v>
       </c>
       <c r="J6">
-        <v>1.046175048721507</v>
+        <v>1.009145484583873</v>
       </c>
       <c r="K6">
-        <v>1.046663912927014</v>
+        <v>1.007181088400195</v>
       </c>
       <c r="L6">
-        <v>1.042297721304791</v>
+        <v>1.006346842328165</v>
       </c>
       <c r="M6">
-        <v>1.044163583833217</v>
+        <v>0.9814071453263188</v>
       </c>
       <c r="N6">
-        <v>1.047660737288647</v>
+        <v>1.010578586922587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041187235822499</v>
+        <v>0.9868538429541164</v>
       </c>
       <c r="D7">
-        <v>1.043690951557537</v>
+        <v>0.9943583343022991</v>
       </c>
       <c r="E7">
-        <v>1.039366621298763</v>
+        <v>0.9937843240626036</v>
       </c>
       <c r="F7">
-        <v>1.040957318643299</v>
+        <v>0.9671365154008981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033773341062582</v>
+        <v>1.03699272161047</v>
       </c>
       <c r="J7">
-        <v>1.045692106428305</v>
+        <v>1.006593697191218</v>
       </c>
       <c r="K7">
-        <v>1.046154935517043</v>
+        <v>1.004522305032091</v>
       </c>
       <c r="L7">
-        <v>1.041841413264475</v>
+        <v>1.003955323356045</v>
       </c>
       <c r="M7">
-        <v>1.043428123659575</v>
+        <v>0.9776453109590483</v>
       </c>
       <c r="N7">
-        <v>1.047177109161994</v>
+        <v>1.008023175699141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038684435803203</v>
+        <v>0.9729860238997732</v>
       </c>
       <c r="D8">
-        <v>1.041299846861556</v>
+        <v>0.981438281122738</v>
       </c>
       <c r="E8">
-        <v>1.037195728363425</v>
+        <v>0.9820498902819581</v>
       </c>
       <c r="F8">
-        <v>1.037614108045104</v>
+        <v>0.9492314940259436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033260494023322</v>
+        <v>1.033292641157107</v>
       </c>
       <c r="J8">
-        <v>1.04366235211291</v>
+        <v>0.995407958029296</v>
       </c>
       <c r="K8">
-        <v>1.044016636262473</v>
+        <v>0.9928756947108544</v>
       </c>
       <c r="L8">
-        <v>1.039923908797394</v>
+        <v>0.9934786251106604</v>
       </c>
       <c r="M8">
-        <v>1.04034112278925</v>
+        <v>0.9611460931203768</v>
       </c>
       <c r="N8">
-        <v>1.045144472362655</v>
+        <v>0.9968215515045864</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034231736301966</v>
+        <v>0.9456825769145073</v>
       </c>
       <c r="D9">
-        <v>1.037046986628221</v>
+        <v>0.9560531215491581</v>
       </c>
       <c r="E9">
-        <v>1.033333796630768</v>
+        <v>0.9590178749804386</v>
       </c>
       <c r="F9">
-        <v>1.031673441845578</v>
+        <v>0.9137772136820416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03233047994801</v>
+        <v>1.025862280191349</v>
       </c>
       <c r="J9">
-        <v>1.040042141170344</v>
+        <v>0.9733108347334102</v>
       </c>
       <c r="K9">
-        <v>1.040206152779362</v>
+        <v>0.9699018581475399</v>
       </c>
       <c r="L9">
-        <v>1.036505096507577</v>
+        <v>0.9728128005883068</v>
       </c>
       <c r="M9">
-        <v>1.034850198310076</v>
+        <v>0.928443404063155</v>
       </c>
       <c r="N9">
-        <v>1.041519120305307</v>
+        <v>0.9746930477590446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03123297791111</v>
+        <v>0.9248805529569607</v>
       </c>
       <c r="D10">
-        <v>1.034183612054311</v>
+        <v>0.9367608539815463</v>
       </c>
       <c r="E10">
-        <v>1.030733159331769</v>
+        <v>0.9415391794929123</v>
       </c>
       <c r="F10">
-        <v>1.02767704409496</v>
+        <v>0.8865100460307551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031692327480197</v>
+        <v>1.020108554429182</v>
       </c>
       <c r="J10">
-        <v>1.03759792537287</v>
+        <v>0.95642772946782</v>
       </c>
       <c r="K10">
-        <v>1.037635712946422</v>
+        <v>0.9523741756982936</v>
       </c>
       <c r="L10">
-        <v>1.0341976818563</v>
+        <v>0.9570507713291021</v>
       </c>
       <c r="M10">
-        <v>1.031152645573755</v>
+        <v>0.9032828479135311</v>
       </c>
       <c r="N10">
-        <v>1.039071433441046</v>
+        <v>0.9577859665474584</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029926902592536</v>
+        <v>0.9150420435635972</v>
       </c>
       <c r="D11">
-        <v>1.032936700026045</v>
+        <v>0.9276514419492687</v>
       </c>
       <c r="E11">
-        <v>1.029600557674375</v>
+        <v>0.9332948674703628</v>
       </c>
       <c r="F11">
-        <v>1.025937430667396</v>
+        <v>0.8735139205115359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031411594804677</v>
+        <v>1.017367563948274</v>
       </c>
       <c r="J11">
-        <v>1.036531928158311</v>
+        <v>0.9484322983111467</v>
       </c>
       <c r="K11">
-        <v>1.036515197017374</v>
+        <v>0.9440801275842078</v>
       </c>
       <c r="L11">
-        <v>1.033191548289875</v>
+        <v>0.9495948085596674</v>
       </c>
       <c r="M11">
-        <v>1.029542243132827</v>
+        <v>0.8912929141594288</v>
       </c>
       <c r="N11">
-        <v>1.03800392238817</v>
+        <v>0.9497791809614534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029440592951192</v>
+        <v>0.9112371980578394</v>
       </c>
       <c r="D12">
-        <v>1.032472450070467</v>
+        <v>0.9241312032564648</v>
       </c>
       <c r="E12">
-        <v>1.029178852770513</v>
+        <v>0.9301105700007247</v>
       </c>
       <c r="F12">
-        <v>1.025289834366208</v>
+        <v>0.8684681164303941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031306646918339</v>
+        <v>1.016304840907194</v>
       </c>
       <c r="J12">
-        <v>1.03613479316189</v>
+        <v>0.945338751171821</v>
       </c>
       <c r="K12">
-        <v>1.036097831046899</v>
+        <v>0.9408721105705302</v>
       </c>
       <c r="L12">
-        <v>1.032816745895571</v>
+        <v>0.9467115059951373</v>
       </c>
       <c r="M12">
-        <v>1.028942616404132</v>
+        <v>0.8866386424309236</v>
       </c>
       <c r="N12">
-        <v>1.037606223414501</v>
+        <v>0.9466812406303553</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029544961754052</v>
+        <v>0.9120606564455017</v>
       </c>
       <c r="D13">
-        <v>1.032572083162974</v>
+        <v>0.9248929401059556</v>
       </c>
       <c r="E13">
-        <v>1.029269355898446</v>
+        <v>0.9307995338561924</v>
       </c>
       <c r="F13">
-        <v>1.025428811367775</v>
+        <v>0.8695611340616682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031329189118125</v>
+        <v>1.016534955865697</v>
       </c>
       <c r="J13">
-        <v>1.036220033661799</v>
+        <v>0.9460083327057505</v>
       </c>
       <c r="K13">
-        <v>1.036187410282339</v>
+        <v>0.9415664190131335</v>
       </c>
       <c r="L13">
-        <v>1.032897191569604</v>
+        <v>0.9473355085937576</v>
       </c>
       <c r="M13">
-        <v>1.029071304849781</v>
+        <v>0.8876467963843923</v>
       </c>
       <c r="N13">
-        <v>1.037691584965698</v>
+        <v>0.947351773046865</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029886728258668</v>
+        <v>0.9147307788461753</v>
       </c>
       <c r="D14">
-        <v>1.03289834742849</v>
+        <v>0.92736340450479</v>
       </c>
       <c r="E14">
-        <v>1.029565720108066</v>
+        <v>0.9330342828667773</v>
       </c>
       <c r="F14">
-        <v>1.025883929559118</v>
+        <v>0.8731015684283153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031402933525775</v>
+        <v>1.017280677927159</v>
       </c>
       <c r="J14">
-        <v>1.036499125018719</v>
+        <v>0.9481792522777732</v>
       </c>
       <c r="K14">
-        <v>1.036480721182446</v>
+        <v>0.9438176961334133</v>
       </c>
       <c r="L14">
-        <v>1.033160589186813</v>
+        <v>0.9493589280353437</v>
       </c>
       <c r="M14">
-        <v>1.029492707696552</v>
+        <v>0.8909125373718344</v>
       </c>
       <c r="N14">
-        <v>1.037971072664358</v>
+        <v>0.949525775573688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030097145130206</v>
+        <v>0.9163550994062476</v>
       </c>
       <c r="D15">
-        <v>1.033099224039295</v>
+        <v>0.9288666235195174</v>
       </c>
       <c r="E15">
-        <v>1.02974818568719</v>
+        <v>0.9343942979440572</v>
       </c>
       <c r="F15">
-        <v>1.026164152304924</v>
+        <v>0.8752525782326664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031448280668561</v>
+        <v>1.017733981581129</v>
       </c>
       <c r="J15">
-        <v>1.036670925684783</v>
+        <v>0.9494997024551257</v>
       </c>
       <c r="K15">
-        <v>1.036661285562233</v>
+        <v>0.9451871650259335</v>
       </c>
       <c r="L15">
-        <v>1.033322733287424</v>
+        <v>0.9505898673811938</v>
       </c>
       <c r="M15">
-        <v>1.029752154081309</v>
+        <v>0.8928967888601267</v>
       </c>
       <c r="N15">
-        <v>1.038143117307072</v>
+        <v>0.9508481009417502</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031319494933161</v>
+        <v>0.9255139894437249</v>
       </c>
       <c r="D16">
-        <v>1.034266214218273</v>
+        <v>0.9373476837016842</v>
       </c>
       <c r="E16">
-        <v>1.030808186834825</v>
+        <v>0.9420704815009463</v>
       </c>
       <c r="F16">
-        <v>1.027792299360945</v>
+        <v>0.8873443929384025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031710865142146</v>
+        <v>1.020284648974578</v>
       </c>
       <c r="J16">
-        <v>1.037668508759645</v>
+        <v>0.9569422983939774</v>
       </c>
       <c r="K16">
-        <v>1.037709917373516</v>
+        <v>0.9529081030791555</v>
       </c>
       <c r="L16">
-        <v>1.034264305709114</v>
+        <v>0.9575308123331818</v>
       </c>
       <c r="M16">
-        <v>1.03125932181087</v>
+        <v>0.9040526821237023</v>
       </c>
       <c r="N16">
-        <v>1.039142117064326</v>
+        <v>0.9583012662205124</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032084185723482</v>
+        <v>0.9310209132352335</v>
       </c>
       <c r="D17">
-        <v>1.034996326023772</v>
+        <v>0.942451112730581</v>
       </c>
       <c r="E17">
-        <v>1.031471335147675</v>
+        <v>0.9466920015184953</v>
       </c>
       <c r="F17">
-        <v>1.028811107568865</v>
+        <v>0.894586595224293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031874390911894</v>
+        <v>1.021813422298564</v>
       </c>
       <c r="J17">
-        <v>1.038292201679246</v>
+        <v>0.9614146847482484</v>
       </c>
       <c r="K17">
-        <v>1.038365667900064</v>
+        <v>0.9575494801398214</v>
       </c>
       <c r="L17">
-        <v>1.03485303429453</v>
+        <v>0.9617040594516545</v>
       </c>
       <c r="M17">
-        <v>1.032202194256031</v>
+        <v>0.9107351870643945</v>
       </c>
       <c r="N17">
-        <v>1.03976669569941</v>
+        <v>0.9627800038763964</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032529486644412</v>
+        <v>0.9341548833520533</v>
       </c>
       <c r="D18">
-        <v>1.035421509655738</v>
+        <v>0.9453568028386902</v>
       </c>
       <c r="E18">
-        <v>1.0318575123012</v>
+        <v>0.9493240907313186</v>
       </c>
       <c r="F18">
-        <v>1.029404482196602</v>
+        <v>0.8986993439355169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03196934798895</v>
+        <v>1.022681621501226</v>
       </c>
       <c r="J18">
-        <v>1.038655256462901</v>
+        <v>0.9639589462771969</v>
       </c>
       <c r="K18">
-        <v>1.038747434635467</v>
+        <v>0.9601904784165227</v>
       </c>
       <c r="L18">
-        <v>1.035195755397877</v>
+        <v>0.9640789099804611</v>
       </c>
       <c r="M18">
-        <v>1.032751258179271</v>
+        <v>0.9145302436048918</v>
       </c>
       <c r="N18">
-        <v>1.040130266062502</v>
+        <v>0.9653278785485471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032681199912693</v>
+        <v>0.9352108883148413</v>
       </c>
       <c r="D19">
-        <v>1.035566372201628</v>
+        <v>0.9463361067266713</v>
       </c>
       <c r="E19">
-        <v>1.031989083395387</v>
+        <v>0.9502113073738502</v>
       </c>
       <c r="F19">
-        <v>1.029606660089183</v>
+        <v>0.9000837801797574</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032001654123741</v>
+        <v>1.02297384957563</v>
       </c>
       <c r="J19">
-        <v>1.038778925006349</v>
+        <v>0.9648160814496931</v>
       </c>
       <c r="K19">
-        <v>1.038877485752409</v>
+        <v>0.9610803034036995</v>
       </c>
       <c r="L19">
-        <v>1.035312500863317</v>
+        <v>0.9648790963210312</v>
       </c>
       <c r="M19">
-        <v>1.03293832399577</v>
+        <v>0.9158077509503144</v>
       </c>
       <c r="N19">
-        <v>1.040254110229466</v>
+        <v>0.966186230951303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032002217421621</v>
+        <v>0.9304383130668504</v>
       </c>
       <c r="D20">
-        <v>1.034918062318243</v>
+        <v>0.9419110568774426</v>
       </c>
       <c r="E20">
-        <v>1.031400250567719</v>
+        <v>0.9462028590829706</v>
       </c>
       <c r="F20">
-        <v>1.028701890380341</v>
+        <v>0.8938213558806133</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031856890141346</v>
+        <v>1.021651875460717</v>
       </c>
       <c r="J20">
-        <v>1.038225361537993</v>
+        <v>0.9609416318818399</v>
       </c>
       <c r="K20">
-        <v>1.038295386912581</v>
+        <v>0.9570584896243931</v>
       </c>
       <c r="L20">
-        <v>1.034789939229309</v>
+        <v>0.9612625659391576</v>
       </c>
       <c r="M20">
-        <v>1.032101126160789</v>
+        <v>0.9100290683752658</v>
       </c>
       <c r="N20">
-        <v>1.03969976063749</v>
+        <v>0.9623062792206579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029786119258999</v>
+        <v>0.913948892100845</v>
       </c>
       <c r="D21">
-        <v>1.032802301118166</v>
+        <v>0.9266399076088152</v>
       </c>
       <c r="E21">
-        <v>1.029478476242039</v>
+        <v>0.9323797697612941</v>
       </c>
       <c r="F21">
-        <v>1.02574994839542</v>
+        <v>0.8720654174668704</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031381236238843</v>
+        <v>1.017062380920121</v>
       </c>
       <c r="J21">
-        <v>1.036416972273709</v>
+        <v>0.947543585676442</v>
       </c>
       <c r="K21">
-        <v>1.036394380599735</v>
+        <v>0.9431584701844485</v>
       </c>
       <c r="L21">
-        <v>1.033083055172692</v>
+        <v>0.9487664073541429</v>
       </c>
       <c r="M21">
-        <v>1.029368655526789</v>
+        <v>0.8899567495442045</v>
       </c>
       <c r="N21">
-        <v>1.037888803253026</v>
+        <v>0.948889206252871</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028385954085297</v>
+        <v>0.9026917474459489</v>
       </c>
       <c r="D22">
-        <v>1.031465707914179</v>
+        <v>0.9162304022729413</v>
       </c>
       <c r="E22">
-        <v>1.028264344345441</v>
+        <v>0.9229672350638982</v>
       </c>
       <c r="F22">
-        <v>1.023885665932058</v>
+        <v>0.8570915027264766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031078285427345</v>
+        <v>1.013913345200554</v>
       </c>
       <c r="J22">
-        <v>1.035273146481948</v>
+        <v>0.9383881812719798</v>
       </c>
       <c r="K22">
-        <v>1.035192436339383</v>
+        <v>0.9336664473067939</v>
       </c>
       <c r="L22">
-        <v>1.032003609648211</v>
+        <v>0.9402364681714612</v>
       </c>
       <c r="M22">
-        <v>1.02764221975407</v>
+        <v>0.8761472584755324</v>
       </c>
       <c r="N22">
-        <v>1.036743353097443</v>
+        <v>0.9397208001240147</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029128865863485</v>
+        <v>0.9087545964635185</v>
       </c>
       <c r="D23">
-        <v>1.032174872064017</v>
+        <v>0.9218351050745734</v>
       </c>
       <c r="E23">
-        <v>1.02890854143985</v>
+        <v>0.928034100002379</v>
       </c>
       <c r="F23">
-        <v>1.02487475981064</v>
+        <v>0.8651694525428302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031239256985507</v>
+        <v>1.015610706931582</v>
       </c>
       <c r="J23">
-        <v>1.035880166421489</v>
+        <v>0.9433198552777107</v>
       </c>
       <c r="K23">
-        <v>1.035830255519411</v>
+        <v>0.9387788228567802</v>
       </c>
       <c r="L23">
-        <v>1.032576446554198</v>
+        <v>0.9448302823933977</v>
       </c>
       <c r="M23">
-        <v>1.02855825091298</v>
+        <v>0.8835962753281986</v>
       </c>
       <c r="N23">
-        <v>1.037351235074923</v>
+        <v>0.9446594776725049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032039257624187</v>
+        <v>0.9307018046013772</v>
       </c>
       <c r="D24">
-        <v>1.034953428412488</v>
+        <v>0.9421553027908725</v>
       </c>
       <c r="E24">
-        <v>1.031432372563014</v>
+        <v>0.9464240764604442</v>
       </c>
       <c r="F24">
-        <v>1.028751243640343</v>
+        <v>0.8941674763372743</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031864799298352</v>
+        <v>1.021724943660457</v>
       </c>
       <c r="J24">
-        <v>1.038255565989966</v>
+        <v>0.9611555816491333</v>
       </c>
       <c r="K24">
-        <v>1.038327146093757</v>
+        <v>0.9572805502621163</v>
       </c>
       <c r="L24">
-        <v>1.034818451256022</v>
+        <v>0.9614622398443703</v>
       </c>
       <c r="M24">
-        <v>1.032146797254132</v>
+        <v>0.9103484479122963</v>
       </c>
       <c r="N24">
-        <v>1.03973000798325</v>
+        <v>0.9625205328211612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035388074676226</v>
+        <v>0.9531407414498824</v>
       </c>
       <c r="D25">
-        <v>1.038151291011355</v>
+        <v>0.962980273458852</v>
       </c>
       <c r="E25">
-        <v>1.034336676422887</v>
+        <v>0.9652994401945364</v>
       </c>
       <c r="F25">
-        <v>1.03321538489803</v>
+        <v>0.9234943764882436</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032574075052542</v>
+        <v>1.027907856384562</v>
       </c>
       <c r="J25">
-        <v>1.040983361002991</v>
+        <v>0.9793549888182919</v>
       </c>
       <c r="K25">
-        <v>1.041196449144188</v>
+        <v>0.9761818103709241</v>
       </c>
       <c r="L25">
-        <v>1.037393811629086</v>
+        <v>0.9784614334949683</v>
       </c>
       <c r="M25">
-        <v>1.036276059107942</v>
+        <v>0.9374090553448874</v>
       </c>
       <c r="N25">
-        <v>1.042461676778076</v>
+        <v>0.9807457852360012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.049999999999999</v>
-      </c>
       <c r="C2">
-        <v>0.9692411534408351</v>
+        <v>1.000486607028482</v>
       </c>
       <c r="D2">
-        <v>0.977952374361206</v>
+        <v>1.018337843220009</v>
       </c>
       <c r="E2">
-        <v>0.9788851530968734</v>
+        <v>1.01545899916205</v>
       </c>
       <c r="F2">
-        <v>0.9443863742004233</v>
+        <v>1.026548934190523</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.032283861542903</v>
-      </c>
       <c r="J2">
-        <v>0.992382459452182</v>
+        <v>1.02265277349731</v>
       </c>
       <c r="K2">
-        <v>0.9897276599713897</v>
+        <v>1.0295474801437</v>
       </c>
       <c r="L2">
-        <v>0.9906467055738086</v>
+        <v>1.026707086107722</v>
       </c>
       <c r="M2">
-        <v>0.9566790030446455</v>
+        <v>1.037650387459276</v>
       </c>
       <c r="N2">
-        <v>0.9937917563724631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008567397625387</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038370143456072</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031962796328715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9801096075843155</v>
+        <v>1.006671023274653</v>
       </c>
       <c r="D3">
-        <v>0.9880728251524237</v>
+        <v>1.023135987644192</v>
       </c>
       <c r="E3">
-        <v>0.9880747122174034</v>
+        <v>1.020539582270992</v>
       </c>
       <c r="F3">
-        <v>0.958435601159939</v>
+        <v>1.031226521181672</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.03520069488138</v>
-      </c>
       <c r="J3">
-        <v>1.001157593186797</v>
+        <v>1.026981466857592</v>
       </c>
       <c r="K3">
-        <v>0.9988606259615378</v>
+        <v>1.033481155934922</v>
       </c>
       <c r="L3">
-        <v>0.9988624881448371</v>
+        <v>1.030916231054822</v>
       </c>
       <c r="M3">
-        <v>0.9696294596704985</v>
+        <v>1.041474854451682</v>
       </c>
       <c r="N3">
-        <v>1.002579351803503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010350569768238</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041396955254852</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034741616601659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.9868168442513457</v>
+        <v>1.010573040093063</v>
       </c>
       <c r="D4">
-        <v>0.9943238409038883</v>
+        <v>1.026170074897018</v>
       </c>
       <c r="E4">
-        <v>0.9937529866630704</v>
+        <v>1.023750094182965</v>
       </c>
       <c r="F4">
-        <v>0.9670888130048431</v>
+        <v>1.034186523523052</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.036982931724107</v>
-      </c>
       <c r="J4">
-        <v>1.006563895827265</v>
+        <v>1.029710099494793</v>
       </c>
       <c r="K4">
-        <v>1.004491258387037</v>
+        <v>1.035962585929052</v>
       </c>
       <c r="L4">
-        <v>1.003927396996229</v>
+        <v>1.033570083798843</v>
       </c>
       <c r="M4">
-        <v>0.9776013755254562</v>
+        <v>1.043889138879188</v>
       </c>
       <c r="N4">
-        <v>1.007993332013832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011470117171448</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043307694613869</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036497129283443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9895655096686381</v>
+        <v>1.01220236716985</v>
       </c>
       <c r="D5">
-        <v>0.9968867217141263</v>
+        <v>1.027441534878815</v>
       </c>
       <c r="E5">
-        <v>0.9960815014868988</v>
+        <v>1.025093146302513</v>
       </c>
       <c r="F5">
-        <v>0.9706318295990156</v>
+        <v>1.03542555255102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.037708932563104</v>
-      </c>
       <c r="J5">
-        <v>1.0087772029017</v>
+        <v>1.030852032906268</v>
       </c>
       <c r="K5">
-        <v>1.006797319486065</v>
+        <v>1.037003083500315</v>
       </c>
       <c r="L5">
-        <v>1.006001656603578</v>
+        <v>1.034680614305101</v>
       </c>
       <c r="M5">
-        <v>0.980864246130421</v>
+        <v>1.044900059293046</v>
       </c>
       <c r="N5">
-        <v>1.010209782238183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011938950384291</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044107766801486</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037240056085462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9900230364484808</v>
+        <v>1.012488863357552</v>
       </c>
       <c r="D6">
-        <v>0.9973133900290687</v>
+        <v>1.02766881989826</v>
       </c>
       <c r="E6">
-        <v>0.9964691771443565</v>
+        <v>1.025331013087756</v>
       </c>
       <c r="F6">
-        <v>0.9712214205749546</v>
+        <v>1.035644783522714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.037829518585061</v>
-      </c>
       <c r="J6">
-        <v>1.009145484583873</v>
+        <v>1.031056706272462</v>
       </c>
       <c r="K6">
-        <v>1.007181088400195</v>
+        <v>1.037191513984223</v>
       </c>
       <c r="L6">
-        <v>1.006346842328165</v>
+        <v>1.034879384982453</v>
       </c>
       <c r="M6">
-        <v>0.9814071453263188</v>
+        <v>1.045080941310922</v>
       </c>
       <c r="N6">
-        <v>1.010578586922587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012024657136498</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044250922064976</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037382068953259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9868538429541164</v>
+        <v>1.010633705748716</v>
       </c>
       <c r="D7">
-        <v>0.9943583343022991</v>
+        <v>1.026227175301694</v>
       </c>
       <c r="E7">
-        <v>0.9937843240626036</v>
+        <v>1.023804588112569</v>
       </c>
       <c r="F7">
-        <v>0.9671365154008981</v>
+        <v>1.034236011057786</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.03699272161047</v>
-      </c>
       <c r="J7">
-        <v>1.006593697191218</v>
+        <v>1.029763264237776</v>
       </c>
       <c r="K7">
-        <v>1.004522305032091</v>
+        <v>1.036016141121818</v>
       </c>
       <c r="L7">
-        <v>1.003955323356045</v>
+        <v>1.033621049237191</v>
       </c>
       <c r="M7">
-        <v>0.9776453109590483</v>
+        <v>1.043935207956631</v>
       </c>
       <c r="N7">
-        <v>1.008023175699141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01149674578155</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043344155057612</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036555197061221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9729860238997732</v>
+        <v>1.002648968148178</v>
       </c>
       <c r="D8">
-        <v>0.981438281122738</v>
+        <v>1.020026544614393</v>
       </c>
       <c r="E8">
-        <v>0.9820498902819581</v>
+        <v>1.017240365802207</v>
       </c>
       <c r="F8">
-        <v>0.9492314940259436</v>
+        <v>1.028186986204818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.033292641157107</v>
-      </c>
       <c r="J8">
-        <v>0.995407958029296</v>
+        <v>1.024180607533873</v>
       </c>
       <c r="K8">
-        <v>0.9928756947108544</v>
+        <v>1.030941908124311</v>
       </c>
       <c r="L8">
-        <v>0.9934786251106604</v>
+        <v>1.028191761562456</v>
       </c>
       <c r="M8">
-        <v>0.9611460931203768</v>
+        <v>1.038998217307473</v>
       </c>
       <c r="N8">
-        <v>0.9968215515045864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.00920410531425</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039436862781344</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032971883487393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.9456825769145073</v>
+        <v>0.9876940282884416</v>
       </c>
       <c r="D9">
-        <v>0.9560531215491581</v>
+        <v>1.008454810521121</v>
       </c>
       <c r="E9">
-        <v>0.9590178749804386</v>
+        <v>1.00498198114063</v>
       </c>
       <c r="F9">
-        <v>0.9137772136820416</v>
+        <v>1.016926157434802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.025862280191349</v>
-      </c>
       <c r="J9">
-        <v>0.9733108347334102</v>
+        <v>1.013688953508096</v>
       </c>
       <c r="K9">
-        <v>0.9699018581475399</v>
+        <v>1.021412187669295</v>
       </c>
       <c r="L9">
-        <v>0.9728128005883068</v>
+        <v>1.017994743015756</v>
       </c>
       <c r="M9">
-        <v>0.928443404063155</v>
+        <v>1.029750461386047</v>
       </c>
       <c r="N9">
-        <v>0.9746930477590446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004852952365977</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032117835559391</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026230343427566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.9248805529569607</v>
+        <v>0.9773083622296074</v>
       </c>
       <c r="D10">
-        <v>0.9367608539815463</v>
+        <v>1.000498768724272</v>
       </c>
       <c r="E10">
-        <v>0.9415391794929123</v>
+        <v>0.9965466778831885</v>
       </c>
       <c r="F10">
-        <v>0.8865100460307551</v>
+        <v>1.009226369214288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.020108554429182</v>
-      </c>
       <c r="J10">
-        <v>0.95642772946782</v>
+        <v>1.006452134708447</v>
       </c>
       <c r="K10">
-        <v>0.9523741756982936</v>
+        <v>1.014859023583436</v>
       </c>
       <c r="L10">
-        <v>0.9570507713291021</v>
+        <v>1.01097856431779</v>
       </c>
       <c r="M10">
-        <v>0.9032828479135311</v>
+        <v>1.023431013220877</v>
       </c>
       <c r="N10">
-        <v>0.9577859665474584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001856899416957</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027168493103033</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021613758166663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9150420435635972</v>
+        <v>0.9744236534964847</v>
       </c>
       <c r="D11">
-        <v>0.9276514419492687</v>
+        <v>0.9985809874650758</v>
       </c>
       <c r="E11">
-        <v>0.9332948674703628</v>
+        <v>0.9945589415532334</v>
       </c>
       <c r="F11">
-        <v>0.8735139205115359</v>
+        <v>1.007619892727198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.017367563948274</v>
-      </c>
       <c r="J11">
-        <v>0.9484322983111467</v>
+        <v>1.004900552649761</v>
       </c>
       <c r="K11">
-        <v>0.9440801275842078</v>
+        <v>1.013529713990868</v>
       </c>
       <c r="L11">
-        <v>0.9495948085596674</v>
+        <v>1.009584202950247</v>
       </c>
       <c r="M11">
-        <v>0.8912929141594288</v>
+        <v>1.022399525625846</v>
       </c>
       <c r="N11">
-        <v>0.9497791809614534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.001420583428292</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.026794348190843</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.020707317128025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9112371980578394</v>
+        <v>0.9740413092091359</v>
       </c>
       <c r="D12">
-        <v>0.9241312032564648</v>
+        <v>0.9985011264044035</v>
       </c>
       <c r="E12">
-        <v>0.9301105700007247</v>
+        <v>0.9945193482011084</v>
       </c>
       <c r="F12">
-        <v>0.8684681164303941</v>
+        <v>1.007726825697596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.016304840907194</v>
-      </c>
       <c r="J12">
-        <v>0.945338751171821</v>
+        <v>1.00498641899985</v>
       </c>
       <c r="K12">
-        <v>0.9408721105705302</v>
+        <v>1.013657098915571</v>
       </c>
       <c r="L12">
-        <v>0.9467115059951373</v>
+        <v>1.00975230753126</v>
       </c>
       <c r="M12">
-        <v>0.8866386424309236</v>
+        <v>1.022707474166247</v>
       </c>
       <c r="N12">
-        <v>0.9466812406303553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.001629282330599</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.02736823193369</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020797385694473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9120606564455017</v>
+        <v>0.9756119961129379</v>
       </c>
       <c r="D13">
-        <v>0.9248929401059556</v>
+        <v>0.9998816578925378</v>
       </c>
       <c r="E13">
-        <v>0.9307995338561924</v>
+        <v>0.996023699102679</v>
       </c>
       <c r="F13">
-        <v>0.8695611340616682</v>
+        <v>1.009209356002692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.016534955865697</v>
-      </c>
       <c r="J13">
-        <v>0.9460083327057505</v>
+        <v>1.006389058997725</v>
       </c>
       <c r="K13">
-        <v>0.9415664190131335</v>
+        <v>1.014967083967842</v>
       </c>
       <c r="L13">
-        <v>0.9473355085937576</v>
+        <v>1.011183185862576</v>
       </c>
       <c r="M13">
-        <v>0.8876467963843923</v>
+        <v>1.024118772124302</v>
       </c>
       <c r="N13">
-        <v>0.947351773046865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002374182565339</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.028763508348489</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021721082252812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9147307788461753</v>
+        <v>0.9775913011308041</v>
       </c>
       <c r="D14">
-        <v>0.92736340450479</v>
+        <v>1.001507196579061</v>
       </c>
       <c r="E14">
-        <v>0.9330342828667773</v>
+        <v>0.9977718024195883</v>
       </c>
       <c r="F14">
-        <v>0.8731015684283153</v>
+        <v>1.010866846590924</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.017280677927159</v>
-      </c>
       <c r="J14">
-        <v>0.9481792522777732</v>
+        <v>1.007963998209892</v>
       </c>
       <c r="K14">
-        <v>0.9438176961334133</v>
+        <v>1.016417676872227</v>
       </c>
       <c r="L14">
-        <v>0.9493589280353437</v>
+        <v>1.012752886179272</v>
       </c>
       <c r="M14">
-        <v>0.8909125373718344</v>
+        <v>1.025603403160152</v>
       </c>
       <c r="N14">
-        <v>0.949525775573688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003137386040741</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030111752155467</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022748183892528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9163550994062476</v>
+        <v>0.9785111038879249</v>
       </c>
       <c r="D15">
-        <v>0.9288666235195174</v>
+        <v>1.002236764060218</v>
       </c>
       <c r="E15">
-        <v>0.9343942979440572</v>
+        <v>0.9985485603911793</v>
       </c>
       <c r="F15">
-        <v>0.8752525782326664</v>
+        <v>1.01158924889555</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.017733981581129</v>
-      </c>
       <c r="J15">
-        <v>0.9494997024551257</v>
+        <v>1.008649312943246</v>
       </c>
       <c r="K15">
-        <v>0.9451871650259335</v>
+        <v>1.017044927431102</v>
       </c>
       <c r="L15">
-        <v>0.9505898673811938</v>
+        <v>1.013425820589665</v>
       </c>
       <c r="M15">
-        <v>0.8928967888601267</v>
+        <v>1.026225136797483</v>
       </c>
       <c r="N15">
-        <v>0.9508481009417502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003446664224674</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.030640954977728</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.023197653163277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.9255139894437249</v>
+        <v>0.9826053876399449</v>
       </c>
       <c r="D16">
-        <v>0.9373476837016842</v>
+        <v>1.005338379884821</v>
       </c>
       <c r="E16">
-        <v>0.9420704815009463</v>
+        <v>1.001825977621457</v>
       </c>
       <c r="F16">
-        <v>0.8873443929384025</v>
+        <v>1.014580921828123</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.020284648974578</v>
-      </c>
       <c r="J16">
-        <v>0.9569422983939774</v>
+        <v>1.011447501172149</v>
       </c>
       <c r="K16">
-        <v>0.9529081030791555</v>
+        <v>1.019575516072524</v>
       </c>
       <c r="L16">
-        <v>0.9575308123331818</v>
+        <v>1.016125760499864</v>
       </c>
       <c r="M16">
-        <v>0.9040526821237023</v>
+        <v>1.028655891239469</v>
       </c>
       <c r="N16">
-        <v>0.9583012662205124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004570107548523</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032523247357956</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024990122874158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.9310209132352335</v>
+        <v>0.9847117358135429</v>
       </c>
       <c r="D17">
-        <v>0.942451112730581</v>
+        <v>1.006869435903366</v>
       </c>
       <c r="E17">
-        <v>0.9466920015184953</v>
+        <v>1.003427477132316</v>
       </c>
       <c r="F17">
-        <v>0.894586595224293</v>
+        <v>1.016006549102906</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.021813422298564</v>
-      </c>
       <c r="J17">
-        <v>0.9614146847482484</v>
+        <v>1.012770367280076</v>
       </c>
       <c r="K17">
-        <v>0.9575494801398214</v>
+        <v>1.020758081628355</v>
       </c>
       <c r="L17">
-        <v>0.9617040594516545</v>
+        <v>1.017375675966738</v>
       </c>
       <c r="M17">
-        <v>0.9107351870643945</v>
+        <v>1.02973962787051</v>
       </c>
       <c r="N17">
-        <v>0.9627800038763964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005032588811579</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033250039739394</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.025828879325978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9341548833520533</v>
+        <v>0.9852714543018359</v>
       </c>
       <c r="D18">
-        <v>0.9453568028386902</v>
+        <v>1.007146098755711</v>
       </c>
       <c r="E18">
-        <v>0.9493240907313186</v>
+        <v>1.00369117218728</v>
       </c>
       <c r="F18">
-        <v>0.8986993439355169</v>
+        <v>1.016159097068522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.022681621501226</v>
-      </c>
       <c r="J18">
-        <v>0.9639589462771969</v>
+        <v>1.01290267288735</v>
       </c>
       <c r="K18">
-        <v>0.9601904784165227</v>
+        <v>1.02084261086435</v>
       </c>
       <c r="L18">
-        <v>0.9640789099804611</v>
+        <v>1.017446493924115</v>
       </c>
       <c r="M18">
-        <v>0.9145302436048918</v>
+        <v>1.029704613506643</v>
       </c>
       <c r="N18">
-        <v>0.9653278785485471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004948307934634</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032983036773049</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.025876845268423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9352108883148413</v>
+        <v>0.984552365812885</v>
       </c>
       <c r="D19">
-        <v>0.9463361067266713</v>
+        <v>1.006401200712904</v>
       </c>
       <c r="E19">
-        <v>0.9502113073738502</v>
+        <v>1.002857733432911</v>
       </c>
       <c r="F19">
-        <v>0.9000837801797574</v>
+        <v>1.015254395437465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.02297384957563</v>
-      </c>
       <c r="J19">
-        <v>0.9648160814496931</v>
+        <v>1.012073818741196</v>
       </c>
       <c r="K19">
-        <v>0.9610803034036995</v>
+        <v>1.020046392796016</v>
       </c>
       <c r="L19">
-        <v>0.9648790963210312</v>
+        <v>1.016563040674447</v>
       </c>
       <c r="M19">
-        <v>0.9158077509503144</v>
+        <v>1.028751752519808</v>
       </c>
       <c r="N19">
-        <v>0.966186230951303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00444304296704</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031901399257351</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025320369156769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.9304383130668504</v>
+        <v>0.9801427817118664</v>
       </c>
       <c r="D20">
-        <v>0.9419110568774426</v>
+        <v>1.002695431742697</v>
       </c>
       <c r="E20">
-        <v>0.9462028590829706</v>
+        <v>0.9988627419917622</v>
       </c>
       <c r="F20">
-        <v>0.8938213558806133</v>
+        <v>1.011337501600864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.021651875460717</v>
-      </c>
       <c r="J20">
-        <v>0.9609416318818399</v>
+        <v>1.008461224458718</v>
       </c>
       <c r="K20">
-        <v>0.9570584896243931</v>
+        <v>1.016691050240793</v>
       </c>
       <c r="L20">
-        <v>0.9612625659391576</v>
+        <v>1.012925618230827</v>
       </c>
       <c r="M20">
-        <v>0.9100290683752658</v>
+        <v>1.025183881787475</v>
       </c>
       <c r="N20">
-        <v>0.9623062792206579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002706252455232</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.028545029239569</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02295196014742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.913948892100845</v>
+        <v>0.9719252603483042</v>
       </c>
       <c r="D21">
-        <v>0.9266399076088152</v>
+        <v>0.9963613150321423</v>
       </c>
       <c r="E21">
-        <v>0.9323797697612941</v>
+        <v>0.9921371243355596</v>
       </c>
       <c r="F21">
-        <v>0.8720654174668704</v>
+        <v>1.005165157654394</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.017062380920121</v>
-      </c>
       <c r="J21">
-        <v>0.947543585676442</v>
+        <v>1.002645547567766</v>
       </c>
       <c r="K21">
-        <v>0.9431584701844485</v>
+        <v>1.011411952887272</v>
       </c>
       <c r="L21">
-        <v>0.9487664073541429</v>
+        <v>1.007269008351848</v>
       </c>
       <c r="M21">
-        <v>0.8899567495442045</v>
+        <v>1.020049330859742</v>
       </c>
       <c r="N21">
-        <v>0.948889206252871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000254944644367</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.024439907952915</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.01922264859342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.9026917474459489</v>
+        <v>0.9666436851191466</v>
       </c>
       <c r="D22">
-        <v>0.9162304022729413</v>
+        <v>0.9923072354899244</v>
       </c>
       <c r="E22">
-        <v>0.9229672350638982</v>
+        <v>0.9878384219627572</v>
       </c>
       <c r="F22">
-        <v>0.8570915027264766</v>
+        <v>1.001240439384252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.013913345200554</v>
-      </c>
       <c r="J22">
-        <v>0.9383881812719798</v>
+        <v>0.9989210885626618</v>
       </c>
       <c r="K22">
-        <v>0.9336664473067939</v>
+        <v>1.008032643603555</v>
       </c>
       <c r="L22">
-        <v>0.9402364681714612</v>
+        <v>1.003654714219205</v>
       </c>
       <c r="M22">
-        <v>0.8761472584755324</v>
+        <v>1.016787362914709</v>
       </c>
       <c r="N22">
-        <v>0.9397208001240147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9986865367748586</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.021858214862051</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.016819452358491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.9087545964635185</v>
+        <v>0.9694139783285407</v>
       </c>
       <c r="D23">
-        <v>0.9218351050745734</v>
+        <v>0.9944225644736743</v>
       </c>
       <c r="E23">
-        <v>0.928034100002379</v>
+        <v>0.9900865424398992</v>
       </c>
       <c r="F23">
-        <v>0.8651694525428302</v>
+        <v>1.00329367648387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.015610706931582</v>
-      </c>
       <c r="J23">
-        <v>0.9433198552777107</v>
+        <v>1.000863167204332</v>
       </c>
       <c r="K23">
-        <v>0.9387788228567802</v>
+        <v>1.009789932727269</v>
       </c>
       <c r="L23">
-        <v>0.9448302823933977</v>
+        <v>1.005539546672185</v>
       </c>
       <c r="M23">
-        <v>0.8835962753281986</v>
+        <v>1.018488860280177</v>
       </c>
       <c r="N23">
-        <v>0.9446594776725049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9994989586963708</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.023204870647158</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018052123707709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.9307018046013772</v>
+        <v>0.980048008471382</v>
       </c>
       <c r="D24">
-        <v>0.9421553027908725</v>
+        <v>1.002581954447638</v>
       </c>
       <c r="E24">
-        <v>0.9464240764604442</v>
+        <v>0.9987455838495043</v>
       </c>
       <c r="F24">
-        <v>0.8941674763372743</v>
+        <v>1.011210931968363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.021724943660457</v>
-      </c>
       <c r="J24">
-        <v>0.9611555816491333</v>
+        <v>1.008336332202899</v>
       </c>
       <c r="K24">
-        <v>0.9572805502621163</v>
+        <v>1.016563879283764</v>
       </c>
       <c r="L24">
-        <v>0.9614622398443703</v>
+        <v>1.01279476431078</v>
       </c>
       <c r="M24">
-        <v>0.9103484479122963</v>
+        <v>1.025043990455161</v>
       </c>
       <c r="N24">
-        <v>0.9625205328211612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002628305266569</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028392925419585</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022834152610357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9531407414498824</v>
+        <v>0.9917353681860258</v>
       </c>
       <c r="D25">
-        <v>0.962980273458852</v>
+        <v>1.011590803280342</v>
       </c>
       <c r="E25">
-        <v>0.9652994401945364</v>
+        <v>1.008297242813549</v>
       </c>
       <c r="F25">
-        <v>0.9234943764882436</v>
+        <v>1.019965855424146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.027907856384562</v>
-      </c>
       <c r="J25">
-        <v>0.9793549888182919</v>
+        <v>1.016544107632636</v>
       </c>
       <c r="K25">
-        <v>0.9761818103709241</v>
+        <v>1.024011812642095</v>
       </c>
       <c r="L25">
-        <v>0.9784614334949683</v>
+        <v>1.020768105900114</v>
       </c>
       <c r="M25">
-        <v>0.9374090553448874</v>
+        <v>1.032261936508141</v>
       </c>
       <c r="N25">
-        <v>0.9807457852360012</v>
+        <v>1.006049494042768</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034105520382373</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028097456418623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.000486607028482</v>
+        <v>1.002512822572629</v>
       </c>
       <c r="D2">
-        <v>1.018337843220009</v>
+        <v>1.019680311958671</v>
       </c>
       <c r="E2">
-        <v>1.01545899916205</v>
+        <v>1.01740918112355</v>
       </c>
       <c r="F2">
-        <v>1.026548934190523</v>
+        <v>1.02799509221395</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.02265277349731</v>
+        <v>1.024618634433998</v>
       </c>
       <c r="K2">
-        <v>1.0295474801437</v>
+        <v>1.030872111938863</v>
       </c>
       <c r="L2">
-        <v>1.026707086107722</v>
+        <v>1.028631191462404</v>
       </c>
       <c r="M2">
-        <v>1.037650387459276</v>
+        <v>1.039077716029548</v>
       </c>
       <c r="N2">
-        <v>1.008567397625387</v>
+        <v>1.012001216499002</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038370143456072</v>
+        <v>1.039499780779877</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031962796328715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032908287739441</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019070203678921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.006671023274653</v>
+        <v>1.007855747965276</v>
       </c>
       <c r="D3">
-        <v>1.023135987644192</v>
+        <v>1.023627280373429</v>
       </c>
       <c r="E3">
-        <v>1.020539582270992</v>
+        <v>1.021728996774918</v>
       </c>
       <c r="F3">
-        <v>1.031226521181672</v>
+        <v>1.031977662673421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.026981466857592</v>
+        <v>1.028134524407454</v>
       </c>
       <c r="K3">
-        <v>1.033481155934922</v>
+        <v>1.033966514223353</v>
       </c>
       <c r="L3">
-        <v>1.030916231054822</v>
+        <v>1.032091199661805</v>
       </c>
       <c r="M3">
-        <v>1.041474854451682</v>
+        <v>1.042217101010322</v>
       </c>
       <c r="N3">
-        <v>1.010350569768238</v>
+        <v>1.013126952298556</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041396955254852</v>
+        <v>1.041984392671595</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034741616601659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03509336280755</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019932170761526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010573040093063</v>
+        <v>1.011239586360174</v>
       </c>
       <c r="D4">
-        <v>1.026170074897018</v>
+        <v>1.026133324510764</v>
       </c>
       <c r="E4">
-        <v>1.023750094182965</v>
+        <v>1.024470464656373</v>
       </c>
       <c r="F4">
-        <v>1.034186523523052</v>
+        <v>1.034508121124344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.029710099494793</v>
+        <v>1.030360087583351</v>
       </c>
       <c r="K4">
-        <v>1.035962585929052</v>
+        <v>1.035926251644255</v>
       </c>
       <c r="L4">
-        <v>1.033570083798843</v>
+        <v>1.034282257819873</v>
       </c>
       <c r="M4">
-        <v>1.043889138879188</v>
+        <v>1.044207165868746</v>
       </c>
       <c r="N4">
-        <v>1.011470117171448</v>
+        <v>1.013837181842708</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043307694613869</v>
+        <v>1.043559390634103</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036497129283443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036480058299036</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020473692150801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.01220236716985</v>
+        <v>1.012654552835739</v>
       </c>
       <c r="D5">
-        <v>1.027441534878815</v>
+        <v>1.027185673212267</v>
       </c>
       <c r="E5">
-        <v>1.025093146302513</v>
+        <v>1.025619322053243</v>
       </c>
       <c r="F5">
-        <v>1.03542555255102</v>
+        <v>1.035569156618115</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.030852032906268</v>
+        <v>1.031293335382987</v>
       </c>
       <c r="K5">
-        <v>1.037003083500315</v>
+        <v>1.036750038733363</v>
       </c>
       <c r="L5">
-        <v>1.034680614305101</v>
+        <v>1.035200969921831</v>
       </c>
       <c r="M5">
-        <v>1.044900059293046</v>
+        <v>1.045042112853274</v>
       </c>
       <c r="N5">
-        <v>1.011938950384291</v>
+        <v>1.014135401889598</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044107766801486</v>
+        <v>1.044220192102302</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037240056085462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037070453444249</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020701429536433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.012488863357552</v>
+        <v>1.012902437673756</v>
       </c>
       <c r="D6">
-        <v>1.02766881989826</v>
+        <v>1.027373721184498</v>
       </c>
       <c r="E6">
-        <v>1.025331013087756</v>
+        <v>1.025822139056673</v>
       </c>
       <c r="F6">
-        <v>1.035644783522714</v>
+        <v>1.035756369326148</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.031056706272462</v>
+        <v>1.031460380277583</v>
       </c>
       <c r="K6">
-        <v>1.037191513984223</v>
+        <v>1.036899648636248</v>
       </c>
       <c r="L6">
-        <v>1.034879384982453</v>
+        <v>1.035365104631583</v>
       </c>
       <c r="M6">
-        <v>1.045080941310922</v>
+        <v>1.045191328034663</v>
       </c>
       <c r="N6">
-        <v>1.012024657136498</v>
+        <v>1.014189954386155</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044250922064976</v>
+        <v>1.044338285298845</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037382068953259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037185880584693</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020744159058881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.010633705748716</v>
+        <v>1.011303069540474</v>
       </c>
       <c r="D7">
-        <v>1.026227175301694</v>
+        <v>1.026191709712378</v>
       </c>
       <c r="E7">
-        <v>1.023804588112569</v>
+        <v>1.024527771405506</v>
       </c>
       <c r="F7">
-        <v>1.034236011057786</v>
+        <v>1.034559381726104</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.029763264237776</v>
+        <v>1.030416008678828</v>
       </c>
       <c r="K7">
-        <v>1.036016141121818</v>
+        <v>1.035981076897307</v>
       </c>
       <c r="L7">
-        <v>1.033621049237191</v>
+        <v>1.034336007928487</v>
       </c>
       <c r="M7">
-        <v>1.043935207956631</v>
+        <v>1.044254989952968</v>
       </c>
       <c r="N7">
-        <v>1.01149674578155</v>
+        <v>1.013886124119995</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043344155057612</v>
+        <v>1.043597240029511</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036555197061221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036541010136911</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020494604815179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002648968148178</v>
+        <v>1.004417177344225</v>
       </c>
       <c r="D8">
-        <v>1.020026544614393</v>
+        <v>1.02110319565692</v>
       </c>
       <c r="E8">
-        <v>1.017240365802207</v>
+        <v>1.018958969396951</v>
       </c>
       <c r="F8">
-        <v>1.028186986204818</v>
+        <v>1.029418715699713</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.024180607533873</v>
+        <v>1.025898018021246</v>
       </c>
       <c r="K8">
-        <v>1.030941908124311</v>
+        <v>1.032004701247231</v>
       </c>
       <c r="L8">
-        <v>1.028191761562456</v>
+        <v>1.029888110185611</v>
       </c>
       <c r="M8">
-        <v>1.038998217307473</v>
+        <v>1.0402144080765</v>
       </c>
       <c r="N8">
-        <v>1.00920410531425</v>
+        <v>1.012500888613374</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039436862781344</v>
+        <v>1.040399397009826</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032971883487393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033734458063574</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019397785726722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9876940282884416</v>
+        <v>0.991590787572577</v>
       </c>
       <c r="D9">
-        <v>1.008454810521121</v>
+        <v>1.011657098805244</v>
       </c>
       <c r="E9">
-        <v>1.00498198114063</v>
+        <v>1.008620883195499</v>
       </c>
       <c r="F9">
-        <v>1.016926157434802</v>
+        <v>1.019904909058696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>1.013688953508096</v>
+        <v>1.017444031952762</v>
       </c>
       <c r="K9">
-        <v>1.021412187669295</v>
+        <v>1.02456383710394</v>
       </c>
       <c r="L9">
-        <v>1.017994743015756</v>
+        <v>1.021575624054857</v>
       </c>
       <c r="M9">
-        <v>1.029750461386047</v>
+        <v>1.032683091687882</v>
       </c>
       <c r="N9">
-        <v>1.004852952365977</v>
+        <v>1.009789717360877</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032117835559391</v>
+        <v>1.034438839382443</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026230343427566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028469718684248</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017298137781153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9773083622296074</v>
+        <v>0.9828118692347377</v>
       </c>
       <c r="D10">
-        <v>1.000498768724272</v>
+        <v>1.005273440290501</v>
       </c>
       <c r="E10">
-        <v>0.9965466778831885</v>
+        <v>1.001629852256295</v>
       </c>
       <c r="F10">
-        <v>1.009226369214288</v>
+        <v>1.013510155470345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="J10">
-        <v>1.006452134708447</v>
+        <v>1.011724431039065</v>
       </c>
       <c r="K10">
-        <v>1.014859023583436</v>
+        <v>1.019548129473231</v>
       </c>
       <c r="L10">
-        <v>1.01097856431779</v>
+        <v>1.015969741440358</v>
       </c>
       <c r="M10">
-        <v>1.023431013220877</v>
+        <v>1.027639690389742</v>
       </c>
       <c r="N10">
-        <v>1.001856899416957</v>
+        <v>1.008084190175834</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027168493103033</v>
+        <v>1.03049922138864</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021613758166663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024941945014118</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015888053135769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9744236534964847</v>
+        <v>0.9802806755834431</v>
       </c>
       <c r="D11">
-        <v>0.9985809874650758</v>
+        <v>1.003711576207974</v>
       </c>
       <c r="E11">
-        <v>0.9945589415532334</v>
+        <v>0.9999459138382267</v>
       </c>
       <c r="F11">
-        <v>1.007619892727198</v>
+        <v>1.012187080765136</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>1.004900552649761</v>
+        <v>1.01049745049722</v>
       </c>
       <c r="K11">
-        <v>1.013529713990868</v>
+        <v>1.018563835440375</v>
       </c>
       <c r="L11">
-        <v>1.009584202950247</v>
+        <v>1.014868850217075</v>
       </c>
       <c r="M11">
-        <v>1.022399525625846</v>
+        <v>1.026882768993788</v>
       </c>
       <c r="N11">
-        <v>1.001420583428292</v>
+        <v>1.008074876780846</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.026794348190843</v>
+        <v>1.030340542639098</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.020707317128025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024282561307664</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015759391197209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9740413092091359</v>
+        <v>0.9798355067249843</v>
       </c>
       <c r="D12">
-        <v>0.9985011264044035</v>
+        <v>1.003585693387975</v>
       </c>
       <c r="E12">
-        <v>0.9945193482011084</v>
+        <v>0.9998360712960682</v>
       </c>
       <c r="F12">
-        <v>1.007726825697596</v>
+        <v>1.01224229820482</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>1.00498641899985</v>
+        <v>1.010518479012692</v>
       </c>
       <c r="K12">
-        <v>1.013657098915571</v>
+        <v>1.018644518091212</v>
       </c>
       <c r="L12">
-        <v>1.00975230753126</v>
+        <v>1.014966412595128</v>
       </c>
       <c r="M12">
-        <v>1.022707474166247</v>
+        <v>1.027138654359176</v>
       </c>
       <c r="N12">
-        <v>1.001629282330599</v>
+        <v>1.00830231210231</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.02736823193369</v>
+        <v>1.030872034039913</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020797385694473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024339606879803</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015896010200003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9756119961129379</v>
+        <v>0.9809870923292285</v>
       </c>
       <c r="D13">
-        <v>0.9998816578925378</v>
+        <v>1.004579581418851</v>
       </c>
       <c r="E13">
-        <v>0.996023699102679</v>
+        <v>1.000948044608221</v>
       </c>
       <c r="F13">
-        <v>1.009209356002692</v>
+        <v>1.01338686138236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>1.006389058997725</v>
+        <v>1.011522839004936</v>
       </c>
       <c r="K13">
-        <v>1.014967083967842</v>
+        <v>1.019575825718331</v>
       </c>
       <c r="L13">
-        <v>1.011183185862576</v>
+        <v>1.016013131144833</v>
       </c>
       <c r="M13">
-        <v>1.024118772124302</v>
+        <v>1.028218818674996</v>
       </c>
       <c r="N13">
-        <v>1.002374182565339</v>
+        <v>1.008699248905034</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.028763508348489</v>
+        <v>1.032004651041132</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021721082252812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024995302884971</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016254771811554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9775913011308041</v>
+        <v>0.9825175828975075</v>
       </c>
       <c r="D14">
-        <v>1.001507196579061</v>
+        <v>1.005785323653106</v>
       </c>
       <c r="E14">
-        <v>0.9977718024195883</v>
+        <v>1.002281386180975</v>
       </c>
       <c r="F14">
-        <v>1.010866846590924</v>
+        <v>1.014682960226559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>1.007963998209892</v>
+        <v>1.012672903065488</v>
       </c>
       <c r="K14">
-        <v>1.016417676872227</v>
+        <v>1.020615782598604</v>
       </c>
       <c r="L14">
-        <v>1.012752886179272</v>
+        <v>1.01717731933133</v>
       </c>
       <c r="M14">
-        <v>1.025603403160152</v>
+        <v>1.029349802690188</v>
       </c>
       <c r="N14">
-        <v>1.003137386040741</v>
+        <v>1.009056767768608</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.030111752155467</v>
+        <v>1.033072929507679</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022748183892528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025732173541775</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016608284130973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9785111038879249</v>
+        <v>0.9832513052621743</v>
       </c>
       <c r="D15">
-        <v>1.002236764060218</v>
+        <v>1.006338752054808</v>
       </c>
       <c r="E15">
-        <v>0.9985485603911793</v>
+        <v>1.00288797725323</v>
       </c>
       <c r="F15">
-        <v>1.01158924889555</v>
+        <v>1.015255508498895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>1.008649312943246</v>
+        <v>1.01318241967504</v>
       </c>
       <c r="K15">
-        <v>1.017044927431102</v>
+        <v>1.0210708418348</v>
       </c>
       <c r="L15">
-        <v>1.013425820589665</v>
+        <v>1.017684009308422</v>
       </c>
       <c r="M15">
-        <v>1.026225136797483</v>
+        <v>1.029824988483407</v>
       </c>
       <c r="N15">
-        <v>1.003446664224674</v>
+        <v>1.009189685669676</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.030640954977728</v>
+        <v>1.033486225346921</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023197653163277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026060437941266</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016749015072152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9826053876399449</v>
+        <v>0.9866535989160318</v>
       </c>
       <c r="D16">
-        <v>1.005338379884821</v>
+        <v>1.008769931428377</v>
       </c>
       <c r="E16">
-        <v>1.001825977621457</v>
+        <v>1.005543417086402</v>
       </c>
       <c r="F16">
-        <v>1.014580921828123</v>
+        <v>1.017688507203493</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>1.011447501172149</v>
+        <v>1.015328418188923</v>
       </c>
       <c r="K16">
-        <v>1.019575516072524</v>
+        <v>1.022946409092463</v>
       </c>
       <c r="L16">
-        <v>1.016125760499864</v>
+        <v>1.019776913802584</v>
       </c>
       <c r="M16">
-        <v>1.028655891239469</v>
+        <v>1.031709807370868</v>
       </c>
       <c r="N16">
-        <v>1.004570107548523</v>
+        <v>1.009628960325859</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032523247357956</v>
+        <v>1.034937090333909</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024990122874158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027390039045726</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01724517320194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9847117358135429</v>
+        <v>0.988479546727882</v>
       </c>
       <c r="D17">
-        <v>1.006869435903366</v>
+        <v>1.010019448677645</v>
       </c>
       <c r="E17">
-        <v>1.003427477132316</v>
+        <v>1.006899060937307</v>
       </c>
       <c r="F17">
-        <v>1.016006549102906</v>
+        <v>1.018886475170324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>1.012770367280076</v>
+        <v>1.016387752769006</v>
       </c>
       <c r="K17">
-        <v>1.020758081628355</v>
+        <v>1.023854052111937</v>
       </c>
       <c r="L17">
-        <v>1.017375675966738</v>
+        <v>1.020787196372226</v>
       </c>
       <c r="M17">
-        <v>1.02973962787051</v>
+        <v>1.032571265996401</v>
       </c>
       <c r="N17">
-        <v>1.005032588811579</v>
+        <v>1.009813107456546</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033250039739394</v>
+        <v>1.035488418168123</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025828879325978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028034641888394</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017445986805363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9852714543018359</v>
+        <v>0.9890688317468589</v>
       </c>
       <c r="D18">
-        <v>1.007146098755711</v>
+        <v>1.010309137011252</v>
       </c>
       <c r="E18">
-        <v>1.00369117218728</v>
+        <v>1.007200635235089</v>
       </c>
       <c r="F18">
-        <v>1.016159097068522</v>
+        <v>1.019061662239716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>1.01290267288735</v>
+        <v>1.016551262526608</v>
       </c>
       <c r="K18">
-        <v>1.02084261086435</v>
+        <v>1.023952262780278</v>
       </c>
       <c r="L18">
-        <v>1.017446493924115</v>
+        <v>1.020896223200567</v>
       </c>
       <c r="M18">
-        <v>1.029704613506643</v>
+        <v>1.032559283027826</v>
       </c>
       <c r="N18">
-        <v>1.004948307934634</v>
+        <v>1.009733668373392</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032983036773049</v>
+        <v>1.035240097000311</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025876845268423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028091174633303</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017387228947626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.984552365812885</v>
+        <v>0.9886124025515319</v>
       </c>
       <c r="D19">
-        <v>1.006401200712904</v>
+        <v>1.009802473064855</v>
       </c>
       <c r="E19">
-        <v>1.002857733432911</v>
+        <v>1.006617433312934</v>
       </c>
       <c r="F19">
-        <v>1.015254395437465</v>
+        <v>1.018369022962968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>1.012073818741196</v>
+        <v>1.015975443275109</v>
       </c>
       <c r="K19">
-        <v>1.020046392796016</v>
+        <v>1.023390473815776</v>
       </c>
       <c r="L19">
-        <v>1.016563040674447</v>
+        <v>1.020258974671319</v>
       </c>
       <c r="M19">
-        <v>1.028751752519808</v>
+        <v>1.031815156293552</v>
       </c>
       <c r="N19">
-        <v>1.00444304296704</v>
+        <v>1.009434513808931</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031901399257351</v>
+        <v>1.034324298879602</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025320369156769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02770106874118</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017128177120833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9801427817118664</v>
+        <v>0.9851483206085847</v>
       </c>
       <c r="D20">
-        <v>1.002695431742697</v>
+        <v>1.006991343320899</v>
       </c>
       <c r="E20">
-        <v>0.9988627419917622</v>
+        <v>1.00349540013834</v>
       </c>
       <c r="F20">
-        <v>1.011337501600864</v>
+        <v>1.015218784018387</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>1.008461224458718</v>
+        <v>1.013264002908214</v>
       </c>
       <c r="K20">
-        <v>1.016691050240793</v>
+        <v>1.020912362373187</v>
       </c>
       <c r="L20">
-        <v>1.012925618230827</v>
+        <v>1.017477064348556</v>
       </c>
       <c r="M20">
-        <v>1.025183881787475</v>
+        <v>1.028999205926201</v>
       </c>
       <c r="N20">
-        <v>1.002706252455232</v>
+        <v>1.008480500401315</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028545029239569</v>
+        <v>1.031564494209023</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02295196014742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025953321180128</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016279131481193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9719252603483042</v>
+        <v>0.9784787863155757</v>
       </c>
       <c r="D21">
-        <v>0.9963613150321423</v>
+        <v>1.002136830310707</v>
       </c>
       <c r="E21">
-        <v>0.9921371243355596</v>
+        <v>0.9981768120374165</v>
       </c>
       <c r="F21">
-        <v>1.005165157654394</v>
+        <v>1.010296754033001</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.019999999999999</v>
+      </c>
       <c r="J21">
-        <v>1.002645547567766</v>
+        <v>1.008904695899912</v>
       </c>
       <c r="K21">
-        <v>1.011411952887272</v>
+        <v>1.017077832557882</v>
       </c>
       <c r="L21">
-        <v>1.007269008351848</v>
+        <v>1.013192807793696</v>
       </c>
       <c r="M21">
-        <v>1.020049330859742</v>
+        <v>1.025085642260477</v>
       </c>
       <c r="N21">
-        <v>1.000254944644367</v>
+        <v>1.007523959749637</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.024439907952915</v>
+        <v>1.028425890596196</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.01922264859342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023245771840511</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015204150104219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9666436851191466</v>
+        <v>0.9742117271727274</v>
       </c>
       <c r="D22">
-        <v>0.9923072354899244</v>
+        <v>0.999048049806897</v>
       </c>
       <c r="E22">
-        <v>0.9878384219627572</v>
+        <v>0.9947999089131541</v>
       </c>
       <c r="F22">
-        <v>1.001240439384252</v>
+        <v>1.007189814698846</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>0.9989210885626618</v>
+        <v>1.006127056309222</v>
       </c>
       <c r="K22">
-        <v>1.008032643603555</v>
+        <v>1.014638388633983</v>
       </c>
       <c r="L22">
-        <v>1.003654714219205</v>
+        <v>1.010475089308514</v>
       </c>
       <c r="M22">
-        <v>1.016787362914709</v>
+        <v>1.022620172960198</v>
       </c>
       <c r="N22">
-        <v>0.9986865367748586</v>
+        <v>1.006913524506578</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.021858214862051</v>
+        <v>1.026474600763106</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.016819452358491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021505923960001</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014522596573525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9694139783285407</v>
+        <v>0.9764257207454906</v>
       </c>
       <c r="D23">
-        <v>0.9944225644736743</v>
+        <v>1.00063552273106</v>
       </c>
       <c r="E23">
-        <v>0.9900865424398992</v>
+        <v>0.9965408013804935</v>
       </c>
       <c r="F23">
-        <v>1.00329367648387</v>
+        <v>1.008794607610608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>1.000863167204332</v>
+        <v>1.007550375254262</v>
       </c>
       <c r="K23">
-        <v>1.009789932727269</v>
+        <v>1.015881880440533</v>
       </c>
       <c r="L23">
-        <v>1.005539546672185</v>
+        <v>1.011866690095764</v>
       </c>
       <c r="M23">
-        <v>1.018488860280177</v>
+        <v>1.023885008709274</v>
       </c>
       <c r="N23">
-        <v>0.9994989586963708</v>
+        <v>1.007171782839622</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.023204870647158</v>
+        <v>1.027475652710542</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018052123707709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022374384887061</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014860671904543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.980048008471382</v>
+        <v>0.9850911096162011</v>
       </c>
       <c r="D24">
-        <v>1.002581954447638</v>
+        <v>1.006911608277123</v>
       </c>
       <c r="E24">
-        <v>0.9987455838495043</v>
+        <v>1.003414025408674</v>
       </c>
       <c r="F24">
-        <v>1.011210931968363</v>
+        <v>1.015122631347017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>1.008336332202899</v>
+        <v>1.013175394871723</v>
       </c>
       <c r="K24">
-        <v>1.016563879283764</v>
+        <v>1.02081842583938</v>
       </c>
       <c r="L24">
-        <v>1.01279476431078</v>
+        <v>1.017381451026043</v>
       </c>
       <c r="M24">
-        <v>1.025043990455161</v>
+        <v>1.028889281185922</v>
       </c>
       <c r="N24">
-        <v>1.002628305266569</v>
+        <v>1.008430743429935</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028392925419585</v>
+        <v>1.031436260790172</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022834152610357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025856431683055</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016234243592744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9917353681860258</v>
+        <v>0.9950187796843191</v>
       </c>
       <c r="D25">
-        <v>1.011590803280342</v>
+        <v>1.014188673320567</v>
       </c>
       <c r="E25">
-        <v>1.008297242813549</v>
+        <v>1.011382503110966</v>
       </c>
       <c r="F25">
-        <v>1.019965855424146</v>
+        <v>1.022443924116954</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>1.016544107632636</v>
+        <v>1.019714952550909</v>
       </c>
       <c r="K25">
-        <v>1.024011812642095</v>
+        <v>1.026570650113037</v>
       </c>
       <c r="L25">
-        <v>1.020768105900114</v>
+        <v>1.023806653206567</v>
       </c>
       <c r="M25">
-        <v>1.032261936508141</v>
+        <v>1.03470353869652</v>
       </c>
       <c r="N25">
-        <v>1.006049494042768</v>
+        <v>1.010492635727106</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034105520382373</v>
+        <v>1.036037899509141</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028097456418623</v>
+        <v>1.029920378552755</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017872636633105</v>
       </c>
     </row>
   </sheetData>
